--- a/Experiements Result/S-2.xlsx
+++ b/Experiements Result/S-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="55">
   <si>
     <t>Query no: 1</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Duplicate-Aware Ranking (Optimal)</t>
   </si>
   <si>
-    <t>Qtree Ranking</t>
-  </si>
-  <si>
     <t>DARQ ResultSet</t>
   </si>
   <si>
@@ -46,16 +43,10 @@
     <t>Duplicate-Aware ResultSet(Optimal)</t>
   </si>
   <si>
-    <t>Qtree ResultSet</t>
-  </si>
-  <si>
     <t>DARQ ResultSet Estimated</t>
   </si>
   <si>
     <t>MIPs ResultSet Estimated</t>
-  </si>
-  <si>
-    <t>Qtree ResultSet Estimated</t>
   </si>
   <si>
     <t>MIPs ResultSet SE</t>
@@ -64,16 +55,10 @@
     <t>DARQ ResultSet SE</t>
   </si>
   <si>
-    <t>QTree ResultSet SE</t>
-  </si>
-  <si>
     <t>MIPs Rank SE</t>
   </si>
   <si>
     <t>DARQ Rank SE</t>
-  </si>
-  <si>
-    <t>QTree Rank SE</t>
   </si>
   <si>
     <t>Query no: 2</t>
@@ -104,9 +89,6 @@
   </si>
   <si>
     <t>Query Type: S-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query:  SELECT   ?o ?o1 ?o2WHERE {     ?uri    &lt;http://purl.org/ontology/bibo/authorList&gt;   ?o.         ?uri   &lt;http://purl.org/dc/elements/1.1/title&gt;      ?o1.      ?uri   &lt;http://swrc.ontoware.org/ontology#year&gt;     ?o2.  }	</t>
   </si>
   <si>
     <t xml:space="preserve">Query:  SELECT   ?o ?o1 ?o2 WHERE {  ?uri   &lt;http://swrc.ontoware.org/ontology#abstract&gt; ?o1.     ?uri   &lt;http://swrc.ontoware.org/ontology#month&gt;     ?o2.  ?uri    &lt;http://purl.org/ontology/bibo/authorList&gt;   ?o. }	</t>
@@ -182,6 +164,21 @@
   </si>
   <si>
     <t xml:space="preserve">Cannot find the 5fth Query </t>
+  </si>
+  <si>
+    <t>Dup Unaware Ranking</t>
+  </si>
+  <si>
+    <t>Dup Unaware ResultSet</t>
+  </si>
+  <si>
+    <t>Dup Unaware ResultSet SE</t>
+  </si>
+  <si>
+    <t>Dup Unaware  Rank SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query:  SELECT   ?o ?o1 ?o2 WHERE {     ?uri    &lt;http://purl.org/ontology/bibo/authorList&gt;   ?o.         ?uri   &lt;http://purl.org/dc/elements/1.1/title&gt;      ?o1.      ?uri   &lt;http://swrc.ontoware.org/ontology#year&gt;     ?o2.  }	</t>
   </si>
 </sst>
 </file>
@@ -265,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -278,6 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,43 +578,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="I189" workbookViewId="0">
+      <selection activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
       <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -624,15 +622,15 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -641,49 +639,46 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -694,6 +689,9 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
@@ -706,17 +704,24 @@
       <c r="H5">
         <v>1580</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>1580</v>
       </c>
       <c r="K5">
         <v>1580</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5">
+        <f>H5-F5</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>H5-F5</f>
+        <f>POWER((H5-I5),2)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
@@ -726,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -738,6 +743,9 @@
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2497</v>
@@ -749,27 +757,34 @@
       <c r="H6">
         <v>2687</v>
       </c>
-      <c r="J6">
-        <v>3120</v>
+      <c r="I6">
+        <v>2497</v>
       </c>
       <c r="K6">
         <v>2720</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
         <f>POWER((H6-F6),2)</f>
         <v>36100</v>
       </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N53" si="1">POWER((H6-I6),2)</f>
+        <v>36100</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
       <c r="P6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -780,6 +795,9 @@
         <v>4</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
@@ -792,19 +810,26 @@
       <c r="H7">
         <v>3514</v>
       </c>
-      <c r="J7">
-        <v>4608</v>
+      <c r="I7">
+        <v>3138</v>
       </c>
       <c r="K7">
         <v>3483</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7">
-        <v>0</v>
+        <f t="shared" ref="M7:M14" si="2">POWER((H7-F7),2)</f>
+        <v>141376</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N14" si="1">POWER((H7-F7),2)</f>
+        <f t="shared" si="1"/>
         <v>141376</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -812,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -824,6 +849,9 @@
       </c>
       <c r="D8">
         <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
       <c r="F8">
         <v>3639</v>
@@ -835,27 +863,34 @@
       <c r="H8">
         <v>3846</v>
       </c>
-      <c r="J8">
-        <v>6059</v>
+      <c r="I8">
+        <v>3639</v>
       </c>
       <c r="K8">
         <v>3752</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>42849</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
         <v>42849</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -867,6 +902,9 @@
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
       <c r="F9">
         <v>3919</v>
@@ -878,27 +916,34 @@
       <c r="H9">
         <v>3919</v>
       </c>
-      <c r="J9">
-        <v>7148</v>
+      <c r="I9">
+        <v>3919</v>
       </c>
       <c r="K9">
         <v>3788</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
       <c r="P9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -910,6 +955,9 @@
       </c>
       <c r="D10">
         <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
       <c r="F10">
         <v>3919</v>
@@ -921,19 +969,26 @@
       <c r="H10">
         <v>3919</v>
       </c>
-      <c r="J10">
-        <v>7148</v>
+      <c r="I10">
+        <v>3919</v>
       </c>
       <c r="K10">
         <v>3788</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -941,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -952,6 +1007,9 @@
         <v>9</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
@@ -964,19 +1022,26 @@
       <c r="H11">
         <v>3919</v>
       </c>
-      <c r="J11">
-        <v>7148</v>
+      <c r="I11">
+        <v>3919</v>
       </c>
       <c r="K11">
         <v>3788</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -984,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -996,6 +1061,9 @@
       </c>
       <c r="D12">
         <v>10</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
       </c>
       <c r="F12">
         <v>3919</v>
@@ -1007,19 +1075,26 @@
       <c r="H12">
         <v>3919</v>
       </c>
-      <c r="J12">
-        <v>7148</v>
+      <c r="I12">
+        <v>3919</v>
       </c>
       <c r="K12">
         <v>3788</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -1027,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1039,6 +1114,9 @@
       </c>
       <c r="D13">
         <v>7</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="F13">
         <v>3919</v>
@@ -1050,19 +1128,26 @@
       <c r="H13">
         <v>3919</v>
       </c>
-      <c r="J13">
-        <v>7148</v>
+      <c r="I13">
+        <v>3919</v>
       </c>
       <c r="K13">
         <v>3788</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -1070,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1082,6 +1167,9 @@
       </c>
       <c r="D14">
         <v>8</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
       </c>
       <c r="F14">
         <v>3919</v>
@@ -1093,19 +1181,26 @@
       <c r="H14">
         <v>3919</v>
       </c>
-      <c r="J14">
-        <v>7148</v>
+      <c r="I14">
+        <v>3919</v>
       </c>
       <c r="K14">
         <v>3788</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -1113,42 +1208,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <f>SUM(M5:M14)/10</f>
+        <v>22032.5</v>
       </c>
       <c r="N15" s="3">
         <f>SUM(N5:N14)/10</f>
         <v>22032.5</v>
       </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <f>SUM(P5:P14)/10</f>
+        <v>1.4</v>
       </c>
       <c r="Q15" s="3">
         <f>SUM(Q5:Q14)/10</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1157,49 +1260,46 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>11</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
         <v>12</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>13</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="s">
         <v>14</v>
       </c>
-      <c r="N17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1212,6 +1312,9 @@
       <c r="D18">
         <v>3</v>
       </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
       <c r="F18">
         <v>156</v>
       </c>
@@ -1221,16 +1324,23 @@
       <c r="H18">
         <v>156</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <v>156</v>
       </c>
       <c r="K18">
         <v>156</v>
       </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
@@ -1240,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1253,6 +1363,9 @@
       <c r="D19">
         <v>4</v>
       </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
       <c r="F19">
         <v>275</v>
       </c>
@@ -1262,26 +1375,33 @@
       <c r="H19">
         <v>275</v>
       </c>
-      <c r="J19">
-        <v>306</v>
+      <c r="I19">
+        <v>262</v>
       </c>
       <c r="K19">
         <v>264</v>
       </c>
+      <c r="L19">
+        <v>169</v>
+      </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="N19">
-        <v>0</v>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1294,6 +1414,9 @@
       <c r="D20">
         <v>2</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>365</v>
       </c>
@@ -1303,26 +1426,33 @@
       <c r="H20">
         <v>365</v>
       </c>
-      <c r="J20">
-        <v>434</v>
+      <c r="I20">
+        <v>262</v>
       </c>
       <c r="K20">
         <v>362</v>
       </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10609</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1335,6 +1465,9 @@
       <c r="D21">
         <v>5</v>
       </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
       <c r="F21">
         <v>426</v>
       </c>
@@ -1344,26 +1477,33 @@
       <c r="H21">
         <v>426</v>
       </c>
-      <c r="J21">
-        <v>544</v>
+      <c r="I21">
+        <v>365</v>
       </c>
       <c r="K21">
         <v>426</v>
       </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
+        <f t="shared" si="1"/>
+        <v>3721</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1376,6 +1516,9 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
       <c r="F22">
         <v>426</v>
       </c>
@@ -1385,16 +1528,23 @@
       <c r="H22">
         <v>426</v>
       </c>
-      <c r="J22">
-        <v>544</v>
+      <c r="I22">
+        <v>426</v>
       </c>
       <c r="K22">
         <v>426</v>
       </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
@@ -1404,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1417,6 +1567,9 @@
       <c r="D23">
         <v>6</v>
       </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
       <c r="F23">
         <v>426</v>
       </c>
@@ -1426,16 +1579,23 @@
       <c r="H23">
         <v>426</v>
       </c>
-      <c r="J23">
-        <v>544</v>
+      <c r="I23">
+        <v>426</v>
       </c>
       <c r="K23">
         <v>426</v>
       </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
@@ -1445,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1458,6 +1618,9 @@
       <c r="D24">
         <v>9</v>
       </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
       <c r="F24">
         <v>426</v>
       </c>
@@ -1467,16 +1630,23 @@
       <c r="H24">
         <v>426</v>
       </c>
-      <c r="J24">
-        <v>544</v>
+      <c r="I24">
+        <v>426</v>
       </c>
       <c r="K24">
         <v>426</v>
       </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
@@ -1486,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1499,6 +1669,9 @@
       <c r="D25">
         <v>10</v>
       </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
       <c r="F25">
         <v>426</v>
       </c>
@@ -1508,16 +1681,23 @@
       <c r="H25">
         <v>426</v>
       </c>
-      <c r="J25">
-        <v>544</v>
+      <c r="I25">
+        <v>426</v>
       </c>
       <c r="K25">
         <v>426</v>
       </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
@@ -1527,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1540,6 +1720,9 @@
       <c r="D26">
         <v>7</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="F26">
         <v>426</v>
       </c>
@@ -1549,16 +1732,23 @@
       <c r="H26">
         <v>426</v>
       </c>
-      <c r="J26">
-        <v>544</v>
+      <c r="I26">
+        <v>426</v>
       </c>
       <c r="K26">
         <v>426</v>
       </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
@@ -1568,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1581,6 +1771,9 @@
       <c r="D27">
         <v>8</v>
       </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
       <c r="F27">
         <v>426</v>
       </c>
@@ -1590,16 +1783,23 @@
       <c r="H27">
         <v>426</v>
       </c>
-      <c r="J27">
-        <v>544</v>
+      <c r="I27">
+        <v>426</v>
       </c>
       <c r="K27">
         <v>426</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
@@ -1609,42 +1809,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="3">
+        <f>SUM(L18:L27)/10</f>
+        <v>16.899999999999999</v>
+      </c>
       <c r="M28" s="3">
-        <f>SUM(M18:M27)/10</f>
-        <v>16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3">
-        <v>0</v>
+        <f>SUM(N18:N27)/10</f>
+        <v>1449.9</v>
+      </c>
+      <c r="O28" s="3">
+        <f>SUM(O18:O27)/10</f>
+        <v>0.2</v>
       </c>
       <c r="P28" s="3">
-        <f>SUM(P18:P27)/10</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <f>SUM(Q18:Q27)/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1653,49 +1861,46 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
         <v>10</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>11</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" t="s">
         <v>12</v>
       </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>13</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" t="s">
         <v>14</v>
       </c>
-      <c r="N30" t="s">
-        <v>15</v>
-      </c>
-      <c r="O30" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>18</v>
-      </c>
-      <c r="R30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1708,6 +1913,9 @@
       <c r="D31">
         <v>3</v>
       </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
       <c r="F31">
         <v>156</v>
       </c>
@@ -1717,16 +1925,23 @@
       <c r="H31">
         <v>156</v>
       </c>
-      <c r="J31">
+      <c r="I31">
         <v>156</v>
       </c>
       <c r="K31">
         <v>156</v>
       </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
@@ -1736,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1749,6 +1964,9 @@
       <c r="D32">
         <v>4</v>
       </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
       <c r="F32">
         <v>275</v>
       </c>
@@ -1758,26 +1976,33 @@
       <c r="H32">
         <v>275</v>
       </c>
-      <c r="J32">
-        <v>306</v>
+      <c r="I32">
+        <v>262</v>
       </c>
       <c r="K32">
         <v>264</v>
       </c>
+      <c r="L32">
+        <v>169</v>
+      </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="N32">
-        <v>0</v>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1790,6 +2015,9 @@
       <c r="D33">
         <v>2</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33">
         <v>365</v>
       </c>
@@ -1799,26 +2027,33 @@
       <c r="H33">
         <v>365</v>
       </c>
-      <c r="J33">
-        <v>434</v>
+      <c r="I33">
+        <v>262</v>
       </c>
       <c r="K33">
         <v>362</v>
       </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10609</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1831,6 +2066,9 @@
       <c r="D34">
         <v>5</v>
       </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
       <c r="F34">
         <v>426</v>
       </c>
@@ -1840,26 +2078,33 @@
       <c r="H34">
         <v>426</v>
       </c>
-      <c r="J34">
-        <v>544</v>
+      <c r="I34">
+        <v>365</v>
       </c>
       <c r="K34">
         <v>426</v>
       </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
+        <f t="shared" si="1"/>
+        <v>3721</v>
+      </c>
+      <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1872,6 +2117,9 @@
       <c r="D35">
         <v>1</v>
       </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
       <c r="F35">
         <v>426</v>
       </c>
@@ -1881,16 +2129,23 @@
       <c r="H35">
         <v>426</v>
       </c>
-      <c r="J35">
-        <v>544</v>
+      <c r="I35">
+        <v>426</v>
       </c>
       <c r="K35">
         <v>426</v>
       </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
@@ -1900,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1913,6 +2168,9 @@
       <c r="D36">
         <v>6</v>
       </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
       <c r="F36">
         <v>426</v>
       </c>
@@ -1922,16 +2180,23 @@
       <c r="H36">
         <v>426</v>
       </c>
-      <c r="J36">
-        <v>544</v>
+      <c r="I36">
+        <v>426</v>
       </c>
       <c r="K36">
         <v>426</v>
       </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
@@ -1941,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1954,6 +2219,9 @@
       <c r="D37">
         <v>9</v>
       </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
       <c r="F37">
         <v>426</v>
       </c>
@@ -1963,16 +2231,23 @@
       <c r="H37">
         <v>426</v>
       </c>
-      <c r="J37">
-        <v>544</v>
+      <c r="I37">
+        <v>426</v>
       </c>
       <c r="K37">
         <v>426</v>
       </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
@@ -1982,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1995,6 +2270,9 @@
       <c r="D38">
         <v>10</v>
       </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
       <c r="F38">
         <v>426</v>
       </c>
@@ -2004,16 +2282,23 @@
       <c r="H38">
         <v>426</v>
       </c>
-      <c r="J38">
-        <v>544</v>
+      <c r="I38">
+        <v>426</v>
       </c>
       <c r="K38">
         <v>426</v>
       </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
@@ -2023,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2036,6 +2321,9 @@
       <c r="D39">
         <v>7</v>
       </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
       <c r="F39">
         <v>426</v>
       </c>
@@ -2045,16 +2333,23 @@
       <c r="H39">
         <v>426</v>
       </c>
-      <c r="J39">
-        <v>544</v>
+      <c r="I39">
+        <v>426</v>
       </c>
       <c r="K39">
         <v>426</v>
       </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
@@ -2064,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2077,6 +2372,9 @@
       <c r="D40">
         <v>8</v>
       </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
       <c r="F40">
         <v>426</v>
       </c>
@@ -2086,16 +2384,23 @@
       <c r="H40">
         <v>426</v>
       </c>
-      <c r="J40">
-        <v>544</v>
+      <c r="I40">
+        <v>426</v>
       </c>
       <c r="K40">
         <v>426</v>
       </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
@@ -2105,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2117,46 +2422,50 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3">
+        <f>SUM(L31:L40)/10</f>
+        <v>16.899999999999999</v>
+      </c>
       <c r="M41" s="3">
-        <f>SUM(M31:M40)/10</f>
-        <v>16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3"/>
+        <f>SUM(N31:N40)/10</f>
+        <v>1449.9</v>
+      </c>
+      <c r="O41" s="3">
+        <f>SUM(O31:O40)/10</f>
+        <v>0.2</v>
+      </c>
       <c r="P41" s="3">
-        <f>SUM(P31:P40)/10</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <f>SUM(Q31:Q40)/10</f>
+        <v>0.6</v>
       </c>
       <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -2165,49 +2474,46 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
         <v>6</v>
       </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
         <v>10</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>11</v>
       </c>
-      <c r="K43" t="s">
+      <c r="M43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" t="s">
         <v>12</v>
       </c>
-      <c r="L43" t="s">
+      <c r="O43" t="s">
         <v>13</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" t="s">
         <v>14</v>
       </c>
-      <c r="N43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O43" t="s">
-        <v>16</v>
-      </c>
-      <c r="P43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>18</v>
-      </c>
-      <c r="R43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2220,6 +2526,9 @@
       <c r="D44">
         <v>3</v>
       </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
       <c r="F44">
         <v>156</v>
       </c>
@@ -2229,16 +2538,23 @@
       <c r="H44">
         <v>156</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <v>156</v>
       </c>
       <c r="K44">
         <v>156</v>
       </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
@@ -2248,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2261,6 +2577,9 @@
       <c r="D45">
         <v>4</v>
       </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
       <c r="F45">
         <v>275</v>
       </c>
@@ -2270,26 +2589,33 @@
       <c r="H45">
         <v>275</v>
       </c>
-      <c r="J45">
-        <v>306</v>
+      <c r="I45">
+        <v>262</v>
       </c>
       <c r="K45">
         <v>264</v>
       </c>
+      <c r="L45">
+        <v>169</v>
+      </c>
       <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="N45">
-        <v>0</v>
+      <c r="O45">
+        <v>1</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2302,6 +2628,9 @@
       <c r="D46">
         <v>2</v>
       </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
       <c r="F46">
         <v>365</v>
       </c>
@@ -2311,26 +2640,33 @@
       <c r="H46">
         <v>365</v>
       </c>
-      <c r="J46">
-        <v>434</v>
+      <c r="I46">
+        <v>262</v>
       </c>
       <c r="K46">
         <v>362</v>
       </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10609</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2343,6 +2679,9 @@
       <c r="D47">
         <v>5</v>
       </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
       <c r="F47">
         <v>426</v>
       </c>
@@ -2352,26 +2691,33 @@
       <c r="H47">
         <v>426</v>
       </c>
-      <c r="J47">
-        <v>544</v>
+      <c r="I47">
+        <v>365</v>
       </c>
       <c r="K47">
         <v>426</v>
       </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
+        <f t="shared" si="1"/>
+        <v>3721</v>
+      </c>
+      <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2384,6 +2730,9 @@
       <c r="D48">
         <v>1</v>
       </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
       <c r="F48">
         <v>426</v>
       </c>
@@ -2393,16 +2742,23 @@
       <c r="H48">
         <v>426</v>
       </c>
-      <c r="J48">
-        <v>544</v>
+      <c r="I48">
+        <v>426</v>
       </c>
       <c r="K48">
         <v>426</v>
       </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
@@ -2412,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2425,6 +2781,9 @@
       <c r="D49">
         <v>6</v>
       </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
       <c r="F49">
         <v>426</v>
       </c>
@@ -2434,16 +2793,23 @@
       <c r="H49">
         <v>426</v>
       </c>
-      <c r="J49">
-        <v>544</v>
+      <c r="I49">
+        <v>426</v>
       </c>
       <c r="K49">
         <v>426</v>
       </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
@@ -2453,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2466,6 +2832,9 @@
       <c r="D50">
         <v>9</v>
       </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
       <c r="F50">
         <v>426</v>
       </c>
@@ -2475,16 +2844,23 @@
       <c r="H50">
         <v>426</v>
       </c>
-      <c r="J50">
-        <v>544</v>
+      <c r="I50">
+        <v>426</v>
       </c>
       <c r="K50">
         <v>426</v>
       </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
@@ -2494,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -2507,6 +2883,9 @@
       <c r="D51">
         <v>10</v>
       </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
       <c r="F51">
         <v>426</v>
       </c>
@@ -2516,16 +2895,23 @@
       <c r="H51">
         <v>426</v>
       </c>
-      <c r="J51">
-        <v>544</v>
+      <c r="I51">
+        <v>426</v>
       </c>
       <c r="K51">
         <v>426</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
@@ -2535,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -2548,6 +2934,9 @@
       <c r="D52">
         <v>7</v>
       </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
       <c r="F52">
         <v>426</v>
       </c>
@@ -2557,16 +2946,23 @@
       <c r="H52">
         <v>426</v>
       </c>
-      <c r="J52">
-        <v>544</v>
+      <c r="I52">
+        <v>426</v>
       </c>
       <c r="K52">
         <v>426</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>0</v>
       </c>
       <c r="P52">
@@ -2576,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -2589,6 +2985,9 @@
       <c r="D53">
         <v>8</v>
       </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
       <c r="F53">
         <v>426</v>
       </c>
@@ -2598,16 +2997,23 @@
       <c r="H53">
         <v>426</v>
       </c>
-      <c r="J53">
-        <v>544</v>
+      <c r="I53">
+        <v>426</v>
       </c>
       <c r="K53">
         <v>426</v>
       </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>0</v>
       </c>
       <c r="P53">
@@ -2617,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2629,36 +3035,40 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="L54" s="3">
+        <f>SUM(L44:L53)/10</f>
+        <v>16.899999999999999</v>
+      </c>
       <c r="M54" s="3">
-        <f>SUM(M44:M53)/10</f>
-        <v>16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3"/>
+        <f>SUM(N44:N53)/10</f>
+        <v>1449.9</v>
+      </c>
+      <c r="O54" s="3">
+        <f>SUM(O44:O53)/10</f>
+        <v>0.2</v>
+      </c>
       <c r="P54" s="3">
-        <f>SUM(P44:P53)/10</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <f>SUM(Q44:Q53)/10</f>
+        <v>0.6</v>
       </c>
       <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="57" spans="1:21" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="S54" s="1"/>
+    </row>
+    <row r="57" spans="1:19" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C57" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2677,11 +3087,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2698,17 +3106,15 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-    </row>
-    <row r="69" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="69" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -2720,29 +3126,27 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -2751,49 +3155,46 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" t="s">
         <v>6</v>
       </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" t="s">
         <v>10</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>11</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M71" t="s">
+        <v>52</v>
+      </c>
+      <c r="N71" t="s">
         <v>12</v>
       </c>
-      <c r="L71" t="s">
+      <c r="O71" t="s">
         <v>13</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" t="s">
         <v>14</v>
       </c>
-      <c r="N71" t="s">
-        <v>15</v>
-      </c>
-      <c r="O71" t="s">
-        <v>16</v>
-      </c>
-      <c r="P71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>18</v>
-      </c>
-      <c r="R71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2806,6 +3207,9 @@
       <c r="D72">
         <v>10</v>
       </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
       <c r="F72">
         <v>72567</v>
       </c>
@@ -2815,18 +3219,24 @@
       <c r="H72">
         <v>72567</v>
       </c>
-      <c r="J72">
+      <c r="I72">
         <v>72567</v>
       </c>
       <c r="K72">
         <v>72567</v>
       </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
       <c r="P72">
         <v>0</v>
       </c>
@@ -2834,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2847,6 +3257,9 @@
       <c r="D73">
         <v>2</v>
       </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
       <c r="F73">
         <v>142989</v>
       </c>
@@ -2856,18 +3269,24 @@
       <c r="H73">
         <v>142989</v>
       </c>
-      <c r="J73">
+      <c r="I73">
         <v>142989</v>
       </c>
       <c r="K73">
         <v>142989</v>
       </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
       <c r="P73">
         <v>0</v>
       </c>
@@ -2875,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2888,6 +3307,9 @@
       <c r="D74">
         <v>4</v>
       </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
       <c r="F74">
         <v>211544</v>
       </c>
@@ -2897,18 +3319,24 @@
       <c r="H74">
         <v>211544</v>
       </c>
-      <c r="J74">
+      <c r="I74">
         <v>211544</v>
       </c>
       <c r="K74">
         <v>211544</v>
       </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
       <c r="P74">
         <v>0</v>
       </c>
@@ -2916,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -2929,6 +3357,9 @@
       <c r="D75">
         <v>7</v>
       </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
       <c r="F75">
         <v>267997</v>
       </c>
@@ -2938,18 +3369,24 @@
       <c r="H75">
         <v>267997</v>
       </c>
-      <c r="J75">
+      <c r="I75">
         <v>267997</v>
       </c>
       <c r="K75">
         <v>267988</v>
       </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
       <c r="P75">
         <v>0</v>
       </c>
@@ -2957,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2970,6 +3407,9 @@
       <c r="D76">
         <v>9</v>
       </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
       <c r="F76">
         <v>323197</v>
       </c>
@@ -2979,18 +3419,24 @@
       <c r="H76">
         <v>323197</v>
       </c>
-      <c r="J76">
+      <c r="I76">
         <v>323197</v>
       </c>
       <c r="K76">
         <v>323188</v>
       </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
       <c r="P76">
         <v>0</v>
       </c>
@@ -2998,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -3011,6 +3457,9 @@
       <c r="D77">
         <v>6</v>
       </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
       <c r="F77">
         <v>376930</v>
       </c>
@@ -3020,18 +3469,24 @@
       <c r="H77">
         <v>376930</v>
       </c>
-      <c r="J77">
+      <c r="I77">
         <v>376930</v>
       </c>
       <c r="K77">
         <v>376921</v>
       </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
       <c r="P77">
         <v>0</v>
       </c>
@@ -3039,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -3052,6 +3507,9 @@
       <c r="D78">
         <v>3</v>
       </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
       <c r="F78">
         <v>390195</v>
       </c>
@@ -3061,26 +3519,32 @@
       <c r="H78">
         <v>427732</v>
       </c>
-      <c r="J78">
-        <v>430041</v>
+      <c r="I78">
+        <v>390195</v>
       </c>
       <c r="K78">
         <v>427723</v>
       </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
       <c r="M78">
-        <v>0</v>
+        <v>1409026369</v>
       </c>
       <c r="N78">
         <v>1409026369</v>
       </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
       <c r="P78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
@@ -3093,6 +3557,9 @@
       <c r="D79">
         <v>1</v>
       </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
       <c r="F79">
         <v>403364</v>
       </c>
@@ -3102,26 +3569,32 @@
       <c r="H79">
         <v>475001</v>
       </c>
-      <c r="J79">
-        <v>482900</v>
+      <c r="I79">
+        <v>403364</v>
       </c>
       <c r="K79">
         <v>474972</v>
       </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
       <c r="M79">
-        <v>0</v>
+        <v>5131859769</v>
       </c>
       <c r="N79">
         <v>5131859769</v>
       </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
       <c r="P79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>9</v>
       </c>
@@ -3134,6 +3607,9 @@
       <c r="D80">
         <v>8</v>
       </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
       <c r="F80">
         <v>440853</v>
       </c>
@@ -3143,26 +3619,32 @@
       <c r="H80">
         <v>475001</v>
       </c>
-      <c r="J80">
-        <v>533702</v>
+      <c r="I80">
+        <v>440853</v>
       </c>
       <c r="K80">
         <v>474972</v>
       </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
       <c r="M80">
-        <v>0</v>
+        <v>1166085904</v>
       </c>
       <c r="N80">
         <v>1166085904</v>
       </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
       <c r="P80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10</v>
       </c>
@@ -3175,6 +3657,9 @@
       <c r="D81">
         <v>5</v>
       </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
       <c r="F81">
         <v>475001</v>
       </c>
@@ -3184,73 +3669,82 @@
       <c r="H81">
         <v>475001</v>
       </c>
-      <c r="J81">
-        <v>580971</v>
+      <c r="I81">
+        <v>475001</v>
       </c>
       <c r="K81">
         <v>474972</v>
       </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
       <c r="P81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q81">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="N82" s="4">
+    <row r="82" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12">
+        <v>0</v>
+      </c>
+      <c r="M82" s="12">
         <v>770697204.20000005</v>
       </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4">
+      <c r="N82" s="12">
+        <v>770697204.20000005</v>
+      </c>
+      <c r="O82" s="12">
+        <v>0</v>
+      </c>
+      <c r="P82" s="12">
         <v>1.8</v>
       </c>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q82" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -3259,49 +3753,46 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" t="s">
         <v>6</v>
       </c>
-      <c r="F84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" t="s">
         <v>10</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>11</v>
       </c>
-      <c r="K84" t="s">
+      <c r="M84" t="s">
+        <v>52</v>
+      </c>
+      <c r="N84" t="s">
         <v>12</v>
       </c>
-      <c r="L84" t="s">
+      <c r="O84" t="s">
         <v>13</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" t="s">
         <v>14</v>
       </c>
-      <c r="N84" t="s">
-        <v>15</v>
-      </c>
-      <c r="O84" t="s">
-        <v>16</v>
-      </c>
-      <c r="P84" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>18</v>
-      </c>
-      <c r="R84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3314,6 +3805,9 @@
       <c r="D85">
         <v>10</v>
       </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
       <c r="F85">
         <v>72385</v>
       </c>
@@ -3323,18 +3817,24 @@
       <c r="H85">
         <v>72385</v>
       </c>
-      <c r="J85">
+      <c r="I85">
         <v>72385</v>
       </c>
       <c r="K85">
         <v>72385</v>
       </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
       <c r="P85">
         <v>0</v>
       </c>
@@ -3342,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3355,6 +3855,9 @@
       <c r="D86">
         <v>2</v>
       </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
       <c r="F86">
         <v>142788</v>
       </c>
@@ -3364,18 +3867,24 @@
       <c r="H86">
         <v>142788</v>
       </c>
-      <c r="J86">
+      <c r="I86">
         <v>142788</v>
       </c>
       <c r="K86">
         <v>142788</v>
       </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
       <c r="P86">
         <v>0</v>
       </c>
@@ -3383,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3396,6 +3905,9 @@
       <c r="D87">
         <v>4</v>
       </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
       <c r="F87">
         <v>211433</v>
       </c>
@@ -3405,18 +3917,24 @@
       <c r="H87">
         <v>211433</v>
       </c>
-      <c r="J87">
+      <c r="I87">
         <v>211433</v>
       </c>
       <c r="K87">
         <v>211433</v>
       </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
       <c r="P87">
         <v>0</v>
       </c>
@@ -3424,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -3437,6 +3955,9 @@
       <c r="D88">
         <v>7</v>
       </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
       <c r="F88">
         <v>267988</v>
       </c>
@@ -3446,18 +3967,24 @@
       <c r="H88">
         <v>267988</v>
       </c>
-      <c r="J88">
+      <c r="I88">
         <v>267988</v>
       </c>
       <c r="K88">
         <v>267988</v>
       </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
       <c r="P88">
         <v>0</v>
       </c>
@@ -3465,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
@@ -3478,6 +4005,9 @@
       <c r="D89">
         <v>9</v>
       </c>
+      <c r="E89">
+        <v>9</v>
+      </c>
       <c r="F89">
         <v>323142</v>
       </c>
@@ -3487,18 +4017,24 @@
       <c r="H89">
         <v>323142</v>
       </c>
-      <c r="J89">
+      <c r="I89">
         <v>323142</v>
       </c>
       <c r="K89">
         <v>323131</v>
       </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
       <c r="P89">
         <v>0</v>
       </c>
@@ -3506,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -3519,6 +4055,9 @@
       <c r="D90">
         <v>6</v>
       </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
       <c r="F90">
         <v>376898</v>
       </c>
@@ -3528,18 +4067,24 @@
       <c r="H90">
         <v>376898</v>
       </c>
-      <c r="J90">
+      <c r="I90">
         <v>376898</v>
       </c>
       <c r="K90">
         <v>376873</v>
       </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
       <c r="P90">
         <v>0</v>
       </c>
@@ -3547,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7</v>
       </c>
@@ -3560,6 +4105,9 @@
       <c r="D91">
         <v>3</v>
       </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
       <c r="F91">
         <v>390209</v>
       </c>
@@ -3569,26 +4117,32 @@
       <c r="H91">
         <v>427814</v>
       </c>
-      <c r="J91">
-        <v>430009</v>
+      <c r="I91">
+        <v>390209</v>
       </c>
       <c r="K91">
         <v>427789</v>
       </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
       <c r="M91">
-        <v>0</v>
+        <v>1414136025</v>
       </c>
       <c r="N91">
         <v>1414136025</v>
       </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
       <c r="P91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
@@ -3601,6 +4155,9 @@
       <c r="D92">
         <v>1</v>
       </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
       <c r="F92">
         <v>403366</v>
       </c>
@@ -3610,26 +4167,32 @@
       <c r="H92">
         <v>475001</v>
       </c>
-      <c r="J92">
-        <v>482868</v>
+      <c r="I92">
+        <v>403366</v>
       </c>
       <c r="K92">
         <v>474956</v>
       </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
       <c r="M92">
-        <v>0</v>
+        <v>5131573225</v>
       </c>
       <c r="N92">
         <v>5131573225</v>
       </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
       <c r="P92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9</v>
       </c>
@@ -3642,6 +4205,9 @@
       <c r="D93">
         <v>8</v>
       </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
       <c r="F93">
         <v>440854</v>
       </c>
@@ -3651,18 +4217,24 @@
       <c r="H93">
         <v>475002</v>
       </c>
-      <c r="J93">
-        <v>533784</v>
+      <c r="I93">
+        <v>440854</v>
       </c>
       <c r="K93">
         <v>474956</v>
       </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
       <c r="M93">
-        <v>1</v>
+        <v>1166085904</v>
       </c>
       <c r="N93">
         <v>1166085904</v>
       </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
       <c r="P93">
         <v>1</v>
       </c>
@@ -3670,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10</v>
       </c>
@@ -3683,6 +4255,9 @@
       <c r="D94">
         <v>5</v>
       </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
       <c r="F94">
         <v>475002</v>
       </c>
@@ -3692,74 +4267,83 @@
       <c r="H94">
         <v>475002</v>
       </c>
-      <c r="J94">
-        <v>580971</v>
+      <c r="I94">
+        <v>475002</v>
       </c>
       <c r="K94">
         <v>474956</v>
       </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
       <c r="P94">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q94">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4">
+    <row r="95" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="N95" s="4">
+      <c r="M95" s="12">
         <v>771179515.39999998</v>
       </c>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4">
+      <c r="N95" s="12">
+        <v>771179515.39999998</v>
+      </c>
+      <c r="O95" s="12">
         <v>0.2</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="P95" s="12">
         <v>1.8</v>
       </c>
-      <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q95" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -3768,49 +4352,46 @@
         <v>5</v>
       </c>
       <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
         <v>6</v>
       </c>
-      <c r="F97" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" t="s">
         <v>10</v>
       </c>
-      <c r="J97" t="s">
+      <c r="L97" t="s">
         <v>11</v>
       </c>
-      <c r="K97" t="s">
+      <c r="M97" t="s">
+        <v>52</v>
+      </c>
+      <c r="N97" t="s">
         <v>12</v>
       </c>
-      <c r="L97" t="s">
+      <c r="O97" t="s">
         <v>13</v>
       </c>
-      <c r="M97" t="s">
+      <c r="P97" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q97" t="s">
         <v>14</v>
       </c>
-      <c r="N97" t="s">
-        <v>15</v>
-      </c>
-      <c r="O97" t="s">
-        <v>16</v>
-      </c>
-      <c r="P97" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>18</v>
-      </c>
-      <c r="R97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3823,6 +4404,9 @@
       <c r="D98">
         <v>10</v>
       </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
       <c r="F98">
         <v>72527</v>
       </c>
@@ -3832,18 +4416,24 @@
       <c r="H98">
         <v>72527</v>
       </c>
-      <c r="J98">
+      <c r="I98">
         <v>72527</v>
       </c>
       <c r="K98">
         <v>72527</v>
       </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
       <c r="M98">
         <v>0</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
       <c r="P98">
         <v>0</v>
       </c>
@@ -3851,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3864,6 +4454,9 @@
       <c r="D99">
         <v>2</v>
       </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
       <c r="F99">
         <v>143135</v>
       </c>
@@ -3873,18 +4466,24 @@
       <c r="H99">
         <v>143135</v>
       </c>
-      <c r="J99">
+      <c r="I99">
         <v>143135</v>
       </c>
       <c r="K99">
         <v>143135</v>
       </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
       <c r="P99">
         <v>0</v>
       </c>
@@ -3892,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3905,6 +4504,9 @@
       <c r="D100">
         <v>4</v>
       </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
       <c r="F100">
         <v>211758</v>
       </c>
@@ -3914,18 +4516,24 @@
       <c r="H100">
         <v>211758</v>
       </c>
-      <c r="J100">
+      <c r="I100">
         <v>211758</v>
       </c>
       <c r="K100">
         <v>211752</v>
       </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
       <c r="P100">
         <v>0</v>
       </c>
@@ -3933,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3946,6 +4554,9 @@
       <c r="D101">
         <v>7</v>
       </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
       <c r="F101">
         <v>267923</v>
       </c>
@@ -3955,18 +4566,24 @@
       <c r="H101">
         <v>267923</v>
       </c>
-      <c r="J101">
-        <v>267924</v>
+      <c r="I101">
+        <v>267923</v>
       </c>
       <c r="K101">
         <v>267918</v>
       </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
       <c r="P101">
         <v>0</v>
       </c>
@@ -3974,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -3987,6 +4604,9 @@
       <c r="D102">
         <v>9</v>
       </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
       <c r="F102">
         <v>323199</v>
       </c>
@@ -3996,18 +4616,24 @@
       <c r="H102">
         <v>323199</v>
       </c>
-      <c r="J102">
-        <v>323201</v>
+      <c r="I102">
+        <v>323199</v>
       </c>
       <c r="K102">
         <v>323195</v>
       </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
       <c r="P102">
         <v>0</v>
       </c>
@@ -4015,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -4028,6 +4654,9 @@
       <c r="D103">
         <v>6</v>
       </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
       <c r="F103">
         <v>377005</v>
       </c>
@@ -4037,18 +4666,24 @@
       <c r="H103">
         <v>377005</v>
       </c>
-      <c r="J103">
-        <v>377007</v>
+      <c r="I103">
+        <v>377005</v>
       </c>
       <c r="K103">
         <v>377001</v>
       </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
       <c r="P103">
         <v>0</v>
       </c>
@@ -4056,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -4069,6 +4704,9 @@
       <c r="D104">
         <v>3</v>
       </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
       <c r="F104">
         <v>390160</v>
       </c>
@@ -4078,26 +4716,32 @@
       <c r="H104">
         <v>427877</v>
       </c>
-      <c r="J104">
-        <v>430119</v>
+      <c r="I104">
+        <v>390160</v>
       </c>
       <c r="K104">
         <v>427857</v>
       </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
       <c r="M104">
-        <v>0</v>
+        <v>1422572089</v>
       </c>
       <c r="N104">
         <v>1422572089</v>
       </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
       <c r="P104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q104">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>8</v>
       </c>
@@ -4110,6 +4754,9 @@
       <c r="D105">
         <v>1</v>
       </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
       <c r="F105">
         <v>403364</v>
       </c>
@@ -4119,26 +4766,32 @@
       <c r="H105">
         <v>475001</v>
       </c>
-      <c r="J105">
-        <v>482977</v>
+      <c r="I105">
+        <v>403364</v>
       </c>
       <c r="K105">
         <v>474981</v>
       </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
       <c r="M105">
-        <v>0</v>
+        <v>5131859769</v>
       </c>
       <c r="N105">
         <v>5131859769</v>
       </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
       <c r="P105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q105">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>9</v>
       </c>
@@ -4151,6 +4804,9 @@
       <c r="D106">
         <v>8</v>
       </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
       <c r="F106">
         <v>440853</v>
       </c>
@@ -4160,26 +4816,32 @@
       <c r="H106">
         <v>475001</v>
       </c>
-      <c r="J106">
-        <v>533849</v>
+      <c r="I106">
+        <v>440853</v>
       </c>
       <c r="K106">
         <v>475408</v>
       </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
       <c r="M106">
-        <v>0</v>
+        <v>1166085904</v>
       </c>
       <c r="N106">
         <v>1166085904</v>
       </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
       <c r="P106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10</v>
       </c>
@@ -4192,6 +4854,9 @@
       <c r="D107">
         <v>5</v>
       </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
       <c r="F107">
         <v>475001</v>
       </c>
@@ -4201,73 +4866,82 @@
       <c r="H107">
         <v>475001</v>
       </c>
-      <c r="J107">
-        <v>580973</v>
+      <c r="I107">
+        <v>475001</v>
       </c>
       <c r="K107">
         <v>475408</v>
       </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
       <c r="P107">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q107">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="4">
+    <row r="108" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12">
+        <v>0</v>
+      </c>
+      <c r="M108" s="12">
         <v>772051776.20000005</v>
       </c>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="4">
+      <c r="N108" s="12">
+        <v>772051776.20000005</v>
+      </c>
+      <c r="O108" s="12">
+        <v>0</v>
+      </c>
+      <c r="P108" s="12">
         <v>1.8</v>
       </c>
-      <c r="R108" s="4"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q108" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -4276,49 +4950,46 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" t="s">
         <v>6</v>
       </c>
-      <c r="F110" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" t="s">
-        <v>9</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" t="s">
         <v>10</v>
       </c>
-      <c r="J110" t="s">
+      <c r="L110" t="s">
         <v>11</v>
       </c>
-      <c r="K110" t="s">
+      <c r="M110" t="s">
+        <v>52</v>
+      </c>
+      <c r="N110" t="s">
         <v>12</v>
       </c>
-      <c r="L110" t="s">
+      <c r="O110" t="s">
         <v>13</v>
       </c>
-      <c r="M110" t="s">
+      <c r="P110" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q110" t="s">
         <v>14</v>
       </c>
-      <c r="N110" t="s">
-        <v>15</v>
-      </c>
-      <c r="O110" t="s">
-        <v>16</v>
-      </c>
-      <c r="P110" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>18</v>
-      </c>
-      <c r="R110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4331,6 +5002,9 @@
       <c r="D111">
         <v>10</v>
       </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
       <c r="F111">
         <v>72527</v>
       </c>
@@ -4340,18 +5014,24 @@
       <c r="H111">
         <v>72527</v>
       </c>
-      <c r="J111">
+      <c r="I111">
         <v>72527</v>
       </c>
       <c r="K111">
         <v>72527</v>
       </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
       <c r="P111">
         <v>0</v>
       </c>
@@ -4359,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -4372,6 +5052,9 @@
       <c r="D112">
         <v>2</v>
       </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
       <c r="F112">
         <v>143135</v>
       </c>
@@ -4381,18 +5064,24 @@
       <c r="H112">
         <v>143135</v>
       </c>
-      <c r="J112">
+      <c r="I112">
         <v>143135</v>
       </c>
       <c r="K112">
         <v>143135</v>
       </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
       <c r="P112">
         <v>0</v>
       </c>
@@ -4400,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -4413,6 +5102,9 @@
       <c r="D113">
         <v>4</v>
       </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
       <c r="F113">
         <v>211758</v>
       </c>
@@ -4422,18 +5114,24 @@
       <c r="H113">
         <v>211758</v>
       </c>
-      <c r="J113">
+      <c r="I113">
         <v>211758</v>
       </c>
       <c r="K113">
         <v>211752</v>
       </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
       <c r="P113">
         <v>0</v>
       </c>
@@ -4441,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -4454,6 +5152,9 @@
       <c r="D114">
         <v>7</v>
       </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
       <c r="F114">
         <v>267923</v>
       </c>
@@ -4463,18 +5164,24 @@
       <c r="H114">
         <v>267923</v>
       </c>
-      <c r="J114">
+      <c r="I114">
         <v>267923</v>
       </c>
       <c r="K114">
         <v>267917</v>
       </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
       <c r="P114">
         <v>0</v>
       </c>
@@ -4482,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -4495,6 +5202,9 @@
       <c r="D115">
         <v>9</v>
       </c>
+      <c r="E115">
+        <v>9</v>
+      </c>
       <c r="F115">
         <v>323199</v>
       </c>
@@ -4504,18 +5214,24 @@
       <c r="H115">
         <v>323199</v>
       </c>
-      <c r="J115">
+      <c r="I115">
         <v>323199</v>
       </c>
       <c r="K115">
         <v>323193</v>
       </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
       <c r="P115">
         <v>0</v>
       </c>
@@ -4523,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
@@ -4536,6 +5252,9 @@
       <c r="D116">
         <v>6</v>
       </c>
+      <c r="E116">
+        <v>6</v>
+      </c>
       <c r="F116">
         <v>377005</v>
       </c>
@@ -4545,18 +5264,24 @@
       <c r="H116">
         <v>377005</v>
       </c>
-      <c r="J116">
+      <c r="I116">
         <v>377005</v>
       </c>
       <c r="K116">
         <v>376999</v>
       </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
       <c r="M116">
         <v>0</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
       <c r="P116">
         <v>0</v>
       </c>
@@ -4564,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7</v>
       </c>
@@ -4577,6 +5302,9 @@
       <c r="D117">
         <v>3</v>
       </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
       <c r="F117">
         <v>390160</v>
       </c>
@@ -4586,26 +5314,32 @@
       <c r="H117">
         <v>427877</v>
       </c>
-      <c r="J117">
-        <v>430117</v>
+      <c r="I117">
+        <v>390160</v>
       </c>
       <c r="K117">
         <v>427855</v>
       </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
       <c r="M117">
-        <v>0</v>
+        <v>1422572089</v>
       </c>
       <c r="N117">
         <v>1422572089</v>
       </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
       <c r="P117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8</v>
       </c>
@@ -4618,6 +5352,9 @@
       <c r="D118">
         <v>1</v>
       </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
       <c r="F118">
         <v>403364</v>
       </c>
@@ -4627,26 +5364,32 @@
       <c r="H118">
         <v>475001</v>
       </c>
-      <c r="J118">
-        <v>482975</v>
+      <c r="I118">
+        <v>403364</v>
       </c>
       <c r="K118">
         <v>474979</v>
       </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
       <c r="M118">
-        <v>0</v>
+        <v>5131859769</v>
       </c>
       <c r="N118">
         <v>5131859769</v>
       </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
       <c r="P118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q118">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9</v>
       </c>
@@ -4659,6 +5402,9 @@
       <c r="D119">
         <v>8</v>
       </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
       <c r="F119">
         <v>440853</v>
       </c>
@@ -4668,26 +5414,32 @@
       <c r="H119">
         <v>475001</v>
       </c>
-      <c r="J119">
-        <v>533847</v>
+      <c r="I119">
+        <v>440853</v>
       </c>
       <c r="K119">
         <v>475406</v>
       </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
       <c r="M119">
-        <v>0</v>
+        <v>1166085904</v>
       </c>
       <c r="N119">
         <v>1166085904</v>
       </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
       <c r="P119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10</v>
       </c>
@@ -4700,6 +5452,9 @@
       <c r="D120">
         <v>5</v>
       </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
       <c r="F120">
         <v>475001</v>
       </c>
@@ -4709,26 +5464,32 @@
       <c r="H120">
         <v>475001</v>
       </c>
-      <c r="J120">
-        <v>580971</v>
+      <c r="I120">
+        <v>475001</v>
       </c>
       <c r="K120">
         <v>475406</v>
       </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
       <c r="M120">
         <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
       <c r="P120">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q120">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4740,42 +5501,45 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="4">
+        <v>0</v>
+      </c>
       <c r="M121" s="4">
-        <v>0</v>
+        <v>772051776.20000005</v>
       </c>
       <c r="N121" s="4">
         <v>772051776.20000005</v>
       </c>
-      <c r="O121" s="4"/>
+      <c r="O121" s="4">
+        <v>0</v>
+      </c>
       <c r="P121" s="4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q121" s="4">
         <v>1.8</v>
       </c>
-      <c r="R121" s="4"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -4784,49 +5548,46 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+      <c r="I123" t="s">
         <v>6</v>
       </c>
-      <c r="F123" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" t="s">
         <v>10</v>
       </c>
-      <c r="J123" t="s">
+      <c r="L123" t="s">
         <v>11</v>
       </c>
-      <c r="K123" t="s">
+      <c r="M123" t="s">
+        <v>52</v>
+      </c>
+      <c r="N123" t="s">
         <v>12</v>
       </c>
-      <c r="L123" t="s">
+      <c r="O123" t="s">
         <v>13</v>
       </c>
-      <c r="M123" t="s">
+      <c r="P123" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q123" t="s">
         <v>14</v>
       </c>
-      <c r="N123" t="s">
-        <v>15</v>
-      </c>
-      <c r="O123" t="s">
-        <v>16</v>
-      </c>
-      <c r="P123" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>18</v>
-      </c>
-      <c r="R123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4839,6 +5600,9 @@
       <c r="D124">
         <v>10</v>
       </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
       <c r="F124">
         <v>72527</v>
       </c>
@@ -4848,18 +5612,21 @@
       <c r="H124">
         <v>72527</v>
       </c>
-      <c r="J124">
-        <v>72527</v>
-      </c>
       <c r="K124">
         <v>72527</v>
       </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
       <c r="P124">
         <v>0</v>
       </c>
@@ -4867,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -4880,6 +5647,9 @@
       <c r="D125">
         <v>2</v>
       </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
       <c r="F125">
         <v>143135</v>
       </c>
@@ -4889,18 +5659,21 @@
       <c r="H125">
         <v>143135</v>
       </c>
-      <c r="J125">
-        <v>143135</v>
-      </c>
       <c r="K125">
         <v>143135</v>
       </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
       <c r="P125">
         <v>0</v>
       </c>
@@ -4908,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -4921,6 +5694,9 @@
       <c r="D126">
         <v>4</v>
       </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
       <c r="F126">
         <v>211758</v>
       </c>
@@ -4930,18 +5706,21 @@
       <c r="H126">
         <v>211758</v>
       </c>
-      <c r="J126">
-        <v>211758</v>
-      </c>
       <c r="K126">
         <v>211752</v>
       </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
       <c r="M126">
         <v>0</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
       <c r="P126">
         <v>0</v>
       </c>
@@ -4949,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -4962,6 +5741,9 @@
       <c r="D127">
         <v>7</v>
       </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
       <c r="F127">
         <v>267923</v>
       </c>
@@ -4971,18 +5753,21 @@
       <c r="H127">
         <v>267923</v>
       </c>
-      <c r="J127">
-        <v>267924</v>
-      </c>
       <c r="K127">
         <v>267918</v>
       </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
       <c r="M127">
         <v>0</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
       <c r="P127">
         <v>0</v>
       </c>
@@ -4990,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -5003,6 +5788,9 @@
       <c r="D128">
         <v>9</v>
       </c>
+      <c r="E128">
+        <v>9</v>
+      </c>
       <c r="F128">
         <v>323199</v>
       </c>
@@ -5012,18 +5800,21 @@
       <c r="H128">
         <v>323199</v>
       </c>
-      <c r="J128">
-        <v>323201</v>
-      </c>
       <c r="K128">
         <v>323195</v>
       </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
       <c r="M128">
         <v>0</v>
       </c>
       <c r="N128">
         <v>0</v>
       </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
       <c r="P128">
         <v>0</v>
       </c>
@@ -5031,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -5044,6 +5835,9 @@
       <c r="D129">
         <v>6</v>
       </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
       <c r="F129">
         <v>377005</v>
       </c>
@@ -5053,18 +5847,21 @@
       <c r="H129">
         <v>377005</v>
       </c>
-      <c r="J129">
-        <v>377007</v>
-      </c>
       <c r="K129">
         <v>377001</v>
       </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
       <c r="M129">
         <v>0</v>
       </c>
       <c r="N129">
         <v>0</v>
       </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
       <c r="P129">
         <v>0</v>
       </c>
@@ -5072,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -5085,6 +5882,9 @@
       <c r="D130">
         <v>3</v>
       </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
       <c r="F130">
         <v>390160</v>
       </c>
@@ -5094,26 +5894,29 @@
       <c r="H130">
         <v>427877</v>
       </c>
-      <c r="J130">
-        <v>430119</v>
-      </c>
       <c r="K130">
         <v>427857</v>
       </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
       <c r="M130">
-        <v>0</v>
+        <v>1422572089</v>
       </c>
       <c r="N130">
         <v>1422572089</v>
       </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
       <c r="P130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q130">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -5126,6 +5929,9 @@
       <c r="D131">
         <v>1</v>
       </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
       <c r="F131">
         <v>403364</v>
       </c>
@@ -5135,26 +5941,29 @@
       <c r="H131">
         <v>475001</v>
       </c>
-      <c r="J131">
-        <v>482977</v>
-      </c>
       <c r="K131">
         <v>474981</v>
       </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
       <c r="M131">
-        <v>0</v>
+        <v>5131859769</v>
       </c>
       <c r="N131">
         <v>5131859769</v>
       </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
       <c r="P131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -5167,6 +5976,9 @@
       <c r="D132">
         <v>8</v>
       </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
       <c r="F132">
         <v>440853</v>
       </c>
@@ -5176,26 +5988,29 @@
       <c r="H132">
         <v>475001</v>
       </c>
-      <c r="J132">
-        <v>533849</v>
-      </c>
       <c r="K132">
         <v>475408</v>
       </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
       <c r="M132">
-        <v>0</v>
+        <v>1166085904</v>
       </c>
       <c r="N132">
         <v>1166085904</v>
       </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
       <c r="P132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10</v>
       </c>
@@ -5208,6 +6023,9 @@
       <c r="D133">
         <v>5</v>
       </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
       <c r="F133">
         <v>475001</v>
       </c>
@@ -5217,54 +6035,60 @@
       <c r="H133">
         <v>475001</v>
       </c>
-      <c r="J133">
-        <v>580973</v>
-      </c>
       <c r="K133">
         <v>475408</v>
       </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
       <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
         <v>0</v>
       </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
       <c r="P133">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q133">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4">
-        <v>0</v>
-      </c>
-      <c r="N134" s="4">
+    <row r="134" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12">
+        <v>0</v>
+      </c>
+      <c r="M134" s="12">
         <v>772051776.20000005</v>
       </c>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="4">
+      <c r="N134" s="12">
+        <v>772051776.20000005</v>
+      </c>
+      <c r="O134" s="12">
+        <v>0</v>
+      </c>
+      <c r="P134" s="12">
         <v>1.8</v>
       </c>
-      <c r="R134" s="4"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q134" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -5282,17 +6106,15 @@
       <c r="O135" s="6"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-    </row>
-    <row r="136" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="136" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -5305,29 +6127,27 @@
       <c r="O136" s="6"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -5336,49 +6156,46 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>51</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" t="s">
         <v>6</v>
       </c>
-      <c r="F138" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" t="s">
-        <v>9</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
+        <v>9</v>
+      </c>
+      <c r="K138" t="s">
         <v>10</v>
       </c>
-      <c r="J138" t="s">
+      <c r="L138" t="s">
         <v>11</v>
       </c>
-      <c r="K138" t="s">
+      <c r="M138" t="s">
+        <v>52</v>
+      </c>
+      <c r="N138" t="s">
         <v>12</v>
       </c>
-      <c r="L138" t="s">
+      <c r="O138" t="s">
         <v>13</v>
       </c>
-      <c r="M138" t="s">
+      <c r="P138" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q138" t="s">
         <v>14</v>
       </c>
-      <c r="N138" t="s">
-        <v>15</v>
-      </c>
-      <c r="O138" t="s">
-        <v>16</v>
-      </c>
-      <c r="P138" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>18</v>
-      </c>
-      <c r="R138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5391,6 +6208,9 @@
       <c r="D139">
         <v>5</v>
       </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
       <c r="F139">
         <v>586</v>
       </c>
@@ -5400,18 +6220,25 @@
       <c r="H139">
         <v>586</v>
       </c>
-      <c r="J139">
-        <v>591</v>
+      <c r="I139">
+        <v>586</v>
       </c>
       <c r="K139">
         <v>591</v>
       </c>
+      <c r="L139">
+        <f>POWER((H139-G139),2)</f>
+        <v>0</v>
+      </c>
       <c r="M139">
-        <f>POWER((H139-G139),2)</f>
+        <f>POWER((H139-F139),2)</f>
         <v>0</v>
       </c>
       <c r="N139">
-        <f>POWER((H139-F139),2)</f>
+        <f>POWER((H139-I139),2)</f>
+        <v>0</v>
+      </c>
+      <c r="O139">
         <v>0</v>
       </c>
       <c r="P139">
@@ -5421,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -5434,6 +6261,9 @@
       <c r="D140">
         <v>9</v>
       </c>
+      <c r="E140">
+        <v>9</v>
+      </c>
       <c r="F140">
         <v>1067</v>
       </c>
@@ -5443,18 +6273,25 @@
       <c r="H140">
         <v>1067</v>
       </c>
-      <c r="J140">
-        <v>1077</v>
+      <c r="I140">
+        <v>1067</v>
       </c>
       <c r="K140">
         <v>1077</v>
       </c>
+      <c r="L140">
+        <f t="shared" ref="L140:L148" si="3">POWER((H140-G140),2)</f>
+        <v>0</v>
+      </c>
       <c r="M140">
-        <f t="shared" ref="M140:M148" si="2">POWER((H140-G140),2)</f>
+        <f t="shared" ref="M140:M148" si="4">POWER((H140-F140),2)</f>
         <v>0</v>
       </c>
       <c r="N140">
-        <f t="shared" ref="N140:N148" si="3">POWER((H140-F140),2)</f>
+        <f t="shared" ref="N140:N148" si="5">POWER((H140-I140),2)</f>
+        <v>0</v>
+      </c>
+      <c r="O140">
         <v>0</v>
       </c>
       <c r="P140">
@@ -5464,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -5477,6 +6314,9 @@
       <c r="D141">
         <v>1</v>
       </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
       <c r="F141">
         <v>1240</v>
       </c>
@@ -5486,18 +6326,25 @@
       <c r="H141">
         <v>1240</v>
       </c>
-      <c r="J141">
-        <v>1323</v>
+      <c r="I141">
+        <v>1240</v>
       </c>
       <c r="K141">
         <v>1323</v>
       </c>
+      <c r="L141">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O141">
         <v>0</v>
       </c>
       <c r="P141">
@@ -5507,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -5520,6 +6367,9 @@
       <c r="D142">
         <v>7</v>
       </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
       <c r="F142">
         <v>1404</v>
       </c>
@@ -5529,28 +6379,35 @@
       <c r="H142">
         <v>1404</v>
       </c>
-      <c r="J142">
-        <v>1489</v>
+      <c r="I142">
+        <v>1307</v>
       </c>
       <c r="K142">
         <v>1489</v>
       </c>
+      <c r="L142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>9409</v>
+      </c>
+      <c r="O142">
         <v>0</v>
       </c>
       <c r="P142">
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -5563,6 +6420,9 @@
       <c r="D143">
         <v>4</v>
       </c>
+      <c r="E143">
+        <v>8</v>
+      </c>
       <c r="F143">
         <v>1556</v>
       </c>
@@ -5570,30 +6430,37 @@
         <v>1556</v>
       </c>
       <c r="H143">
-        <v>1557</v>
-      </c>
-      <c r="J143">
-        <v>1641</v>
+        <v>1556</v>
+      </c>
+      <c r="I143">
+        <v>1316</v>
       </c>
       <c r="K143">
         <v>1641</v>
       </c>
+      <c r="L143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M143">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>57600</v>
+      </c>
+      <c r="O143">
         <v>1</v>
       </c>
       <c r="P143">
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -5606,6 +6473,9 @@
       <c r="D144">
         <v>2</v>
       </c>
+      <c r="E144">
+        <v>7</v>
+      </c>
       <c r="F144">
         <v>1711</v>
       </c>
@@ -5615,19 +6485,26 @@
       <c r="H144">
         <v>1711</v>
       </c>
-      <c r="J144">
-        <v>1791</v>
+      <c r="I144">
+        <v>1485</v>
       </c>
       <c r="K144">
         <v>1791</v>
       </c>
+      <c r="L144">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N144">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>51076</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -5636,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -5649,6 +6526,9 @@
       <c r="D145">
         <v>6</v>
       </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
       <c r="F145">
         <v>1721</v>
       </c>
@@ -5658,28 +6538,35 @@
       <c r="H145">
         <v>1807</v>
       </c>
-      <c r="J145">
-        <v>1885</v>
+      <c r="I145">
+        <v>1641</v>
       </c>
       <c r="K145">
         <v>1885</v>
       </c>
-      <c r="M145">
-        <f t="shared" si="2"/>
-        <v>7396</v>
-      </c>
-      <c r="N145">
+      <c r="L145">
         <f t="shared" si="3"/>
         <v>7396</v>
       </c>
+      <c r="M145">
+        <f t="shared" si="4"/>
+        <v>7396</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="5"/>
+        <v>27556</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
       <c r="P145">
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -5692,6 +6579,9 @@
       <c r="D146">
         <v>3</v>
       </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
       <c r="F146">
         <v>1881</v>
       </c>
@@ -5701,28 +6591,35 @@
       <c r="H146">
         <v>1881</v>
       </c>
-      <c r="J146">
-        <v>1952</v>
+      <c r="I146">
+        <v>1800</v>
       </c>
       <c r="K146">
         <v>1952</v>
       </c>
+      <c r="L146">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>6561</v>
+      </c>
+      <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9</v>
       </c>
@@ -5735,6 +6632,9 @@
       <c r="D147">
         <v>8</v>
       </c>
+      <c r="E147">
+        <v>6</v>
+      </c>
       <c r="F147">
         <v>1893</v>
       </c>
@@ -5744,28 +6644,35 @@
       <c r="H147">
         <v>1900</v>
       </c>
-      <c r="J147">
-        <v>1997</v>
+      <c r="I147">
+        <v>1900</v>
       </c>
       <c r="K147">
         <v>1965</v>
       </c>
+      <c r="L147">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M147">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="N147">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10</v>
       </c>
@@ -5778,6 +6685,9 @@
       <c r="D148">
         <v>10</v>
       </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
       <c r="F148">
         <v>1900</v>
       </c>
@@ -5787,63 +6697,78 @@
       <c r="H148">
         <v>1900</v>
       </c>
-      <c r="J148">
-        <v>2010</v>
+      <c r="I148">
+        <v>1900</v>
       </c>
       <c r="K148">
         <v>1965</v>
       </c>
+      <c r="L148">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="M148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
         <v>0</v>
       </c>
       <c r="P148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L149" s="8">
+        <f>SUM(L139:L148)/10</f>
+        <v>739.6</v>
+      </c>
+      <c r="M149" s="8">
         <f>SUM(M139:M148)/10</f>
-        <v>739.7</v>
-      </c>
-      <c r="N149" s="6">
+        <v>744.5</v>
+      </c>
+      <c r="N149" s="8">
         <f>SUM(N139:N148)/10</f>
-        <v>744.6</v>
-      </c>
-      <c r="P149" s="6">
+        <v>15220.2</v>
+      </c>
+      <c r="O149" s="8">
         <v>0.2</v>
       </c>
-      <c r="Q149" s="6">
+      <c r="P149" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q149" s="8">
+        <f>SUM(Q139:Q148)/10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -5852,49 +6777,46 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>51</v>
+      </c>
+      <c r="G151" t="s">
+        <v>7</v>
+      </c>
+      <c r="H151" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
         <v>6</v>
       </c>
-      <c r="F151" t="s">
-        <v>7</v>
-      </c>
-      <c r="G151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" t="s">
-        <v>9</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
+        <v>9</v>
+      </c>
+      <c r="K151" t="s">
         <v>10</v>
       </c>
-      <c r="J151" t="s">
+      <c r="L151" t="s">
         <v>11</v>
       </c>
-      <c r="K151" t="s">
+      <c r="M151" t="s">
+        <v>52</v>
+      </c>
+      <c r="N151" t="s">
         <v>12</v>
       </c>
-      <c r="L151" t="s">
+      <c r="O151" t="s">
         <v>13</v>
       </c>
-      <c r="M151" t="s">
+      <c r="P151" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q151" t="s">
         <v>14</v>
       </c>
-      <c r="N151" t="s">
-        <v>15</v>
-      </c>
-      <c r="O151" t="s">
-        <v>16</v>
-      </c>
-      <c r="P151" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>18</v>
-      </c>
-      <c r="R151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5903,30 +6825,40 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D152">
         <v>5</v>
       </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
       <c r="F152">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="G152">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="H152">
-        <v>622</v>
-      </c>
-      <c r="J152">
-        <v>622</v>
+        <v>591</v>
+      </c>
+      <c r="I152">
+        <v>591</v>
       </c>
       <c r="K152">
         <v>622</v>
       </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
       <c r="M152">
         <v>0</v>
       </c>
       <c r="N152">
+        <f>POWER((H152-I152),2)</f>
+        <v>0</v>
+      </c>
+      <c r="O152">
         <v>0</v>
       </c>
       <c r="P152">
@@ -5936,375 +6868,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" ref="B153:B161" si="4">C153</f>
+        <f t="shared" ref="B153:B161" si="6">C153</f>
         <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D153">
         <v>9</v>
       </c>
+      <c r="E153">
+        <v>6</v>
+      </c>
       <c r="F153">
-        <v>1111</v>
+        <v>1072</v>
       </c>
       <c r="G153">
-        <v>1111</v>
+        <v>1072</v>
       </c>
       <c r="H153">
-        <v>1111</v>
-      </c>
-      <c r="J153">
-        <v>1111</v>
+        <v>1072</v>
+      </c>
+      <c r="I153">
+        <v>770</v>
       </c>
       <c r="K153">
         <v>1111</v>
       </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
       <c r="M153">
         <v>0</v>
       </c>
       <c r="N153">
+        <f t="shared" ref="N153:N216" si="7">POWER((H153-I153),2)</f>
+        <v>91204</v>
+      </c>
+      <c r="O153">
         <v>0</v>
       </c>
       <c r="P153">
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
+      <c r="E154">
+        <v>9</v>
+      </c>
       <c r="F154">
-        <v>1458</v>
+        <v>1357</v>
       </c>
       <c r="G154">
-        <v>1458</v>
+        <v>1357</v>
       </c>
       <c r="H154">
-        <v>1458</v>
-      </c>
-      <c r="J154">
-        <v>1458</v>
+        <v>1357</v>
+      </c>
+      <c r="I154">
+        <v>1252</v>
       </c>
       <c r="K154">
         <v>1458</v>
       </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
       <c r="M154">
         <v>0</v>
       </c>
       <c r="N154">
+        <f t="shared" si="7"/>
+        <v>11025</v>
+      </c>
+      <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D155">
         <v>7</v>
       </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
       <c r="F155">
-        <v>1801</v>
+        <v>1699</v>
       </c>
       <c r="G155">
-        <v>1801</v>
+        <v>1699</v>
       </c>
       <c r="H155">
-        <v>1801</v>
-      </c>
-      <c r="J155">
-        <v>1801</v>
+        <v>1699</v>
+      </c>
+      <c r="I155">
+        <v>1343</v>
       </c>
       <c r="K155">
         <v>1801</v>
       </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
       <c r="M155">
         <v>0</v>
       </c>
       <c r="N155">
+        <f t="shared" si="7"/>
+        <v>126736</v>
+      </c>
+      <c r="O155">
         <v>0</v>
       </c>
       <c r="P155">
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
       <c r="F156">
-        <v>2064</v>
+        <v>1962</v>
       </c>
       <c r="G156">
-        <v>2064</v>
+        <v>1962</v>
       </c>
       <c r="H156">
-        <v>2064</v>
-      </c>
-      <c r="J156">
-        <v>2064</v>
+        <v>1962</v>
+      </c>
+      <c r="I156">
+        <v>1626</v>
       </c>
       <c r="K156">
         <v>2064</v>
       </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
       <c r="M156">
         <v>0</v>
       </c>
       <c r="N156">
+        <f t="shared" si="7"/>
+        <v>112896</v>
+      </c>
+      <c r="O156">
         <v>0</v>
       </c>
       <c r="P156">
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D157">
         <v>4</v>
       </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
       <c r="F157">
-        <v>2320</v>
+        <v>2214</v>
       </c>
       <c r="G157">
-        <v>2320</v>
+        <v>2214</v>
       </c>
       <c r="H157">
-        <v>2320</v>
-      </c>
-      <c r="J157">
-        <v>2320</v>
+        <v>2214</v>
+      </c>
+      <c r="I157">
+        <v>1841</v>
       </c>
       <c r="K157">
         <v>2320</v>
       </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
       <c r="M157">
         <v>0</v>
       </c>
       <c r="N157">
+        <f t="shared" si="7"/>
+        <v>139129</v>
+      </c>
+      <c r="O157">
         <v>0</v>
       </c>
       <c r="P157">
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
       <c r="F158">
-        <v>2558</v>
+        <v>2461</v>
       </c>
       <c r="G158">
-        <v>2558</v>
+        <v>2461</v>
       </c>
       <c r="H158">
-        <v>2558</v>
-      </c>
-      <c r="J158">
-        <v>2558</v>
+        <v>2461</v>
+      </c>
+      <c r="I158">
+        <v>2095</v>
       </c>
       <c r="K158">
         <v>2558</v>
       </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
       <c r="M158">
         <v>0</v>
       </c>
       <c r="N158">
+        <f t="shared" si="7"/>
+        <v>133956</v>
+      </c>
+      <c r="O158">
         <v>0</v>
       </c>
       <c r="P158">
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D159">
         <v>8</v>
       </c>
+      <c r="E159">
+        <v>7</v>
+      </c>
       <c r="F159">
-        <v>2780</v>
+        <v>2701</v>
       </c>
       <c r="G159">
-        <v>2780</v>
+        <v>2701</v>
       </c>
       <c r="H159">
-        <v>2780</v>
-      </c>
-      <c r="J159">
-        <v>2780</v>
+        <v>2701</v>
+      </c>
+      <c r="I159">
+        <v>2435</v>
       </c>
       <c r="K159">
         <v>2780</v>
       </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
       <c r="M159">
         <v>0</v>
       </c>
       <c r="N159">
+        <f t="shared" si="7"/>
+        <v>70756</v>
+      </c>
+      <c r="O159">
         <v>0</v>
       </c>
       <c r="P159">
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D160">
         <v>6</v>
       </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
       <c r="F160">
-        <v>2966</v>
+        <v>2908</v>
       </c>
       <c r="G160">
-        <v>2966</v>
+        <v>2908</v>
       </c>
       <c r="H160">
-        <v>2966</v>
-      </c>
-      <c r="J160">
-        <v>2966</v>
+        <v>2908</v>
+      </c>
+      <c r="I160">
+        <v>2670</v>
       </c>
       <c r="K160">
         <v>2966</v>
       </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
       <c r="M160">
         <v>0</v>
       </c>
       <c r="N160">
+        <f t="shared" si="7"/>
+        <v>56644</v>
+      </c>
+      <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D161">
         <v>10</v>
       </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
       <c r="F161">
-        <v>2966</v>
+        <v>2908</v>
       </c>
       <c r="G161">
-        <v>2966</v>
+        <v>2908</v>
       </c>
       <c r="H161">
-        <v>2966</v>
-      </c>
-      <c r="J161">
-        <v>3039</v>
+        <v>2908</v>
+      </c>
+      <c r="I161">
+        <v>2908</v>
       </c>
       <c r="K161">
         <v>2966</v>
       </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
       <c r="M161">
         <v>0</v>
       </c>
       <c r="N161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O161">
         <v>0</v>
       </c>
       <c r="P161">
@@ -6314,41 +7336,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L162" s="8">
+        <v>0</v>
+      </c>
       <c r="M162" s="8">
         <v>0</v>
       </c>
       <c r="N162" s="8">
+        <f>SUM(N152:N161)/10</f>
+        <v>74234.600000000006</v>
+      </c>
+      <c r="O162" s="8">
         <v>0</v>
       </c>
       <c r="P162" s="8">
         <v>0</v>
       </c>
-      <c r="Q162" s="8">
-        <v>0</v>
-      </c>
-      <c r="S162" s="6"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q162" s="6">
+        <f>SUM(Q152:Q161)/10</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -6357,49 +7386,46 @@
         <v>5</v>
       </c>
       <c r="E164" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" t="s">
+        <v>51</v>
+      </c>
+      <c r="G164" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" t="s">
         <v>6</v>
       </c>
-      <c r="F164" t="s">
-        <v>7</v>
-      </c>
-      <c r="G164" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
+        <v>9</v>
+      </c>
+      <c r="K164" t="s">
         <v>10</v>
       </c>
-      <c r="J164" t="s">
+      <c r="L164" t="s">
         <v>11</v>
       </c>
-      <c r="K164" t="s">
+      <c r="M164" t="s">
+        <v>52</v>
+      </c>
+      <c r="N164" t="s">
         <v>12</v>
       </c>
-      <c r="L164" t="s">
+      <c r="O164" t="s">
         <v>13</v>
       </c>
-      <c r="M164" t="s">
+      <c r="P164" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q164" t="s">
         <v>14</v>
       </c>
-      <c r="N164" t="s">
-        <v>15</v>
-      </c>
-      <c r="O164" t="s">
-        <v>16</v>
-      </c>
-      <c r="P164" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>18</v>
-      </c>
-      <c r="R164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -6412,27 +7438,37 @@
       <c r="D165">
         <v>5</v>
       </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
       <c r="F165">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="G165">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="H165">
-        <v>586</v>
-      </c>
-      <c r="J165">
-        <v>591</v>
+        <v>563</v>
+      </c>
+      <c r="I165">
+        <v>563</v>
       </c>
       <c r="K165">
-        <v>591</v>
+        <v>563</v>
+      </c>
+      <c r="L165">
+        <f>POWER((H165-G165),2)</f>
+        <v>0</v>
       </c>
       <c r="M165">
-        <f>POWER((H165-G165),2)</f>
+        <f>POWER((H165-F165),2)</f>
         <v>0</v>
       </c>
       <c r="N165">
-        <f>POWER((H165-F165),2)</f>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O165">
         <v>0</v>
       </c>
       <c r="P165">
@@ -6442,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2</v>
       </c>
@@ -6455,27 +7491,37 @@
       <c r="D166">
         <v>9</v>
       </c>
+      <c r="E166">
+        <v>9</v>
+      </c>
       <c r="F166">
-        <v>1067</v>
+        <v>881</v>
       </c>
       <c r="G166">
-        <v>1067</v>
+        <v>881</v>
       </c>
       <c r="H166">
-        <v>1067</v>
-      </c>
-      <c r="J166">
-        <v>1077</v>
+        <v>881</v>
+      </c>
+      <c r="I166">
+        <v>881</v>
       </c>
       <c r="K166">
         <v>1077</v>
       </c>
+      <c r="L166">
+        <f t="shared" ref="L166:L174" si="8">POWER((H166-G166),2)</f>
+        <v>0</v>
+      </c>
       <c r="M166">
-        <f t="shared" ref="M166:M174" si="5">POWER((H166-G166),2)</f>
+        <f t="shared" ref="M166:M174" si="9">POWER((H166-F166),2)</f>
         <v>0</v>
       </c>
       <c r="N166">
-        <f t="shared" ref="N166:N174" si="6">POWER((H166-F166),2)</f>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O166">
         <v>0</v>
       </c>
       <c r="P166">
@@ -6485,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -6498,37 +7544,47 @@
       <c r="D167">
         <v>1</v>
       </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
       <c r="F167">
-        <v>1240</v>
+        <v>962</v>
       </c>
       <c r="G167">
-        <v>1240</v>
+        <v>962</v>
       </c>
       <c r="H167">
-        <v>1240</v>
-      </c>
-      <c r="J167">
-        <v>1323</v>
+        <v>962</v>
+      </c>
+      <c r="I167">
+        <v>881</v>
       </c>
       <c r="K167">
         <v>1323</v>
       </c>
+      <c r="L167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>6561</v>
+      </c>
+      <c r="O167">
         <v>0</v>
       </c>
       <c r="P167">
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4</v>
       </c>
@@ -6541,37 +7597,47 @@
       <c r="D168">
         <v>7</v>
       </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
       <c r="F168">
-        <v>1404</v>
+        <v>1015</v>
       </c>
       <c r="G168">
-        <v>1404</v>
+        <v>1015</v>
       </c>
       <c r="H168">
-        <v>1404</v>
-      </c>
-      <c r="J168">
-        <v>1489</v>
+        <v>1015</v>
+      </c>
+      <c r="I168">
+        <v>962</v>
       </c>
       <c r="K168">
         <v>1489</v>
       </c>
+      <c r="L168">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>2809</v>
+      </c>
+      <c r="O168">
         <v>0</v>
       </c>
       <c r="P168">
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -6584,37 +7650,47 @@
       <c r="D169">
         <v>2</v>
       </c>
+      <c r="E169">
+        <v>7</v>
+      </c>
       <c r="F169">
-        <v>1556</v>
+        <v>1162</v>
       </c>
       <c r="G169">
-        <v>1556</v>
+        <v>1162</v>
       </c>
       <c r="H169">
-        <v>1556</v>
-      </c>
-      <c r="J169">
-        <v>1641</v>
+        <v>1162</v>
+      </c>
+      <c r="I169">
+        <v>1015</v>
       </c>
       <c r="K169">
         <v>1641</v>
       </c>
+      <c r="L169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>21609</v>
+      </c>
+      <c r="O169">
         <v>0</v>
       </c>
       <c r="P169">
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6</v>
       </c>
@@ -6627,37 +7703,47 @@
       <c r="D170">
         <v>4</v>
       </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
       <c r="F170">
-        <v>1711</v>
+        <v>1301</v>
       </c>
       <c r="G170">
-        <v>1711</v>
+        <v>1301</v>
       </c>
       <c r="H170">
-        <v>1711</v>
-      </c>
-      <c r="J170">
-        <v>1791</v>
+        <v>1301</v>
+      </c>
+      <c r="I170">
+        <v>1162</v>
       </c>
       <c r="K170">
         <v>1791</v>
       </c>
+      <c r="L170">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>19321</v>
+      </c>
+      <c r="O170">
         <v>0</v>
       </c>
       <c r="P170">
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7</v>
       </c>
@@ -6670,37 +7756,47 @@
       <c r="D171">
         <v>6</v>
       </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
       <c r="F171">
-        <v>1807</v>
+        <v>1358</v>
       </c>
       <c r="G171">
-        <v>1807</v>
+        <v>1358</v>
       </c>
       <c r="H171">
-        <v>1807</v>
-      </c>
-      <c r="J171">
-        <v>1885</v>
+        <v>1358</v>
+      </c>
+      <c r="I171">
+        <v>1301</v>
       </c>
       <c r="K171">
         <v>1885</v>
       </c>
+      <c r="L171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N171">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3249</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
       </c>
       <c r="P171">
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -6711,39 +7807,49 @@
         <v>3</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
       </c>
       <c r="F172">
-        <v>1881</v>
+        <v>1365</v>
       </c>
       <c r="G172">
-        <v>1881</v>
+        <v>1358</v>
       </c>
       <c r="H172">
-        <v>1881</v>
-      </c>
-      <c r="J172">
-        <v>1952</v>
+        <v>1365</v>
+      </c>
+      <c r="I172">
+        <v>1358</v>
       </c>
       <c r="K172">
         <v>1952</v>
       </c>
+      <c r="L172">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
       <c r="M172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N172">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
       </c>
       <c r="P172">
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>9</v>
       </c>
@@ -6754,39 +7860,49 @@
         <v>8</v>
       </c>
       <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
         <v>8</v>
       </c>
       <c r="F173">
-        <v>1893</v>
+        <v>1365</v>
       </c>
       <c r="G173">
-        <v>1900</v>
+        <v>1365</v>
       </c>
       <c r="H173">
-        <v>1900</v>
-      </c>
-      <c r="J173">
-        <v>1997</v>
+        <v>1365</v>
+      </c>
+      <c r="I173">
+        <v>1365</v>
       </c>
       <c r="K173">
         <v>1965</v>
       </c>
+      <c r="L173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N173">
-        <f t="shared" si="6"/>
-        <v>49</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
       </c>
       <c r="P173">
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>10</v>
       </c>
@@ -6799,87 +7915,90 @@
       <c r="D174">
         <v>10</v>
       </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
       <c r="F174">
-        <v>1900</v>
+        <v>1365</v>
       </c>
       <c r="G174">
-        <v>1900</v>
+        <v>1365</v>
       </c>
       <c r="H174">
-        <v>1900</v>
-      </c>
-      <c r="J174">
-        <v>2010</v>
+        <v>1365</v>
+      </c>
+      <c r="I174">
+        <v>1365</v>
       </c>
       <c r="K174">
         <v>1965</v>
       </c>
+      <c r="L174">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="M174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O174">
         <v>0</v>
       </c>
       <c r="P174">
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L175" s="8">
+        <f>SUM(L165:L174)/10</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M175" s="8">
         <f>SUM(M165:M174)/10</f>
         <v>0</v>
       </c>
-      <c r="N175" s="6">
+      <c r="N175" s="8">
         <f>SUM(N165:N174)/10</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q175" s="6">
+        <v>5359.8</v>
+      </c>
+      <c r="O175" s="8">
         <v>0.2</v>
       </c>
-      <c r="R175" s="6"/>
-      <c r="S175" s="10"/>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P175" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="10">
+        <f>SUM(Q165:Q174)/10</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -6888,49 +8007,46 @@
         <v>5</v>
       </c>
       <c r="E177" t="s">
+        <v>3</v>
+      </c>
+      <c r="F177" t="s">
+        <v>51</v>
+      </c>
+      <c r="G177" t="s">
+        <v>7</v>
+      </c>
+      <c r="H177" t="s">
+        <v>8</v>
+      </c>
+      <c r="I177" t="s">
         <v>6</v>
       </c>
-      <c r="F177" t="s">
-        <v>7</v>
-      </c>
-      <c r="G177" t="s">
-        <v>8</v>
-      </c>
-      <c r="H177" t="s">
-        <v>9</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
+        <v>9</v>
+      </c>
+      <c r="K177" t="s">
         <v>10</v>
       </c>
-      <c r="J177" t="s">
+      <c r="L177" t="s">
         <v>11</v>
       </c>
-      <c r="K177" t="s">
+      <c r="M177" t="s">
+        <v>52</v>
+      </c>
+      <c r="N177" t="s">
         <v>12</v>
       </c>
-      <c r="L177" t="s">
+      <c r="O177" t="s">
         <v>13</v>
       </c>
-      <c r="M177" t="s">
+      <c r="P177" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q177" t="s">
         <v>14</v>
       </c>
-      <c r="N177" t="s">
-        <v>15</v>
-      </c>
-      <c r="O177" t="s">
-        <v>16</v>
-      </c>
-      <c r="P177" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>18</v>
-      </c>
-      <c r="R177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -6939,30 +8055,40 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D178">
         <v>5</v>
       </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
       <c r="F178">
-        <v>622</v>
+        <v>568</v>
       </c>
       <c r="G178">
-        <v>622</v>
+        <v>568</v>
       </c>
       <c r="H178">
-        <v>622</v>
-      </c>
-      <c r="J178">
-        <v>622</v>
+        <v>568</v>
+      </c>
+      <c r="I178">
+        <v>568</v>
       </c>
       <c r="K178">
         <v>622</v>
       </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
       <c r="M178">
         <v>0</v>
       </c>
       <c r="N178">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O178">
         <v>0</v>
       </c>
       <c r="P178">
@@ -6972,423 +8098,517 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" ref="B179:B187" si="7">C179</f>
+        <f t="shared" ref="B179:B187" si="10">C179</f>
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D179">
         <v>9</v>
       </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
       <c r="F179">
-        <v>1111</v>
+        <v>889</v>
       </c>
       <c r="G179">
-        <v>1111</v>
+        <v>889</v>
       </c>
       <c r="H179">
-        <v>1111</v>
-      </c>
-      <c r="J179">
-        <v>1111</v>
+        <v>889</v>
+      </c>
+      <c r="I179">
+        <v>736</v>
       </c>
       <c r="K179">
         <v>1111</v>
       </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
       <c r="M179">
         <v>0</v>
       </c>
       <c r="N179">
+        <f t="shared" si="7"/>
+        <v>23409</v>
+      </c>
+      <c r="O179">
         <v>0</v>
       </c>
       <c r="P179">
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D180">
         <v>3</v>
       </c>
+      <c r="E180">
+        <v>9</v>
+      </c>
       <c r="F180">
-        <v>1458</v>
+        <v>1168</v>
       </c>
       <c r="G180">
-        <v>1458</v>
+        <v>1168</v>
       </c>
       <c r="H180">
-        <v>1458</v>
-      </c>
-      <c r="J180">
-        <v>1458</v>
+        <v>1168</v>
+      </c>
+      <c r="I180">
+        <v>1057</v>
       </c>
       <c r="K180">
         <v>1458</v>
       </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
       <c r="M180">
         <v>0</v>
       </c>
       <c r="N180">
+        <f t="shared" si="7"/>
+        <v>12321</v>
+      </c>
+      <c r="O180">
         <v>0</v>
       </c>
       <c r="P180">
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D181">
         <v>7</v>
       </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
       <c r="F181">
-        <v>1801</v>
+        <v>1490</v>
       </c>
       <c r="G181">
-        <v>1801</v>
+        <v>1490</v>
       </c>
       <c r="H181">
-        <v>1801</v>
-      </c>
-      <c r="J181">
-        <v>1801</v>
+        <v>1490</v>
+      </c>
+      <c r="I181">
+        <v>1270</v>
       </c>
       <c r="K181">
         <v>1801</v>
       </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
       <c r="M181">
         <v>0</v>
       </c>
       <c r="N181">
+        <f t="shared" si="7"/>
+        <v>48400</v>
+      </c>
+      <c r="O181">
         <v>0</v>
       </c>
       <c r="P181">
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D182">
         <v>2</v>
       </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
       <c r="F182">
-        <v>2064</v>
+        <v>1744</v>
       </c>
       <c r="G182">
-        <v>2064</v>
+        <v>1744</v>
       </c>
       <c r="H182">
-        <v>2064</v>
-      </c>
-      <c r="J182">
-        <v>2064</v>
+        <v>1744</v>
+      </c>
+      <c r="I182">
+        <v>1549</v>
       </c>
       <c r="K182">
         <v>2064</v>
       </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
+        <f t="shared" si="7"/>
+        <v>38025</v>
+      </c>
+      <c r="O182">
         <v>0</v>
       </c>
       <c r="P182">
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D183">
         <v>4</v>
       </c>
+      <c r="E183">
+        <v>8</v>
+      </c>
       <c r="F183">
-        <v>2320</v>
+        <v>1982</v>
       </c>
       <c r="G183">
-        <v>2320</v>
+        <v>1982</v>
       </c>
       <c r="H183">
-        <v>2320</v>
-      </c>
-      <c r="J183">
-        <v>2320</v>
+        <v>1982</v>
+      </c>
+      <c r="I183">
+        <v>1763</v>
       </c>
       <c r="K183">
         <v>2320</v>
       </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
       <c r="M183">
         <v>0</v>
       </c>
       <c r="N183">
+        <f t="shared" si="7"/>
+        <v>47961</v>
+      </c>
+      <c r="O183">
         <v>0</v>
       </c>
       <c r="P183">
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="E184"/>
+      <c r="E184">
+        <v>7</v>
+      </c>
       <c r="F184">
-        <v>2558</v>
+        <v>2195</v>
       </c>
       <c r="G184">
-        <v>2558</v>
+        <v>2195</v>
       </c>
       <c r="H184">
-        <v>2558</v>
-      </c>
-      <c r="I184"/>
-      <c r="J184">
-        <v>2558</v>
-      </c>
+        <v>2195</v>
+      </c>
+      <c r="I184">
+        <v>2085</v>
+      </c>
+      <c r="J184"/>
       <c r="K184">
         <v>2558</v>
       </c>
-      <c r="L184"/>
+      <c r="L184">
+        <v>0</v>
+      </c>
       <c r="M184">
         <v>0</v>
       </c>
       <c r="N184">
-        <v>0</v>
-      </c>
-      <c r="O184"/>
+        <f t="shared" si="7"/>
+        <v>12100</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
       <c r="P184">
         <v>0</v>
       </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184"/>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q184" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D185">
         <v>8</v>
       </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
       <c r="F185">
-        <v>2780</v>
+        <v>2409</v>
       </c>
       <c r="G185">
-        <v>2780</v>
+        <v>2409</v>
       </c>
       <c r="H185">
-        <v>2780</v>
-      </c>
-      <c r="J185">
-        <v>2780</v>
+        <v>2409</v>
+      </c>
+      <c r="I185">
+        <v>2339</v>
       </c>
       <c r="K185">
         <v>2780</v>
       </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
       <c r="M185">
         <v>0</v>
       </c>
       <c r="N185">
+        <f t="shared" si="7"/>
+        <v>4900</v>
+      </c>
+      <c r="O185">
         <v>0</v>
       </c>
       <c r="P185">
         <v>0</v>
       </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q185" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D186">
         <v>6</v>
       </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
       <c r="F186">
-        <v>2966</v>
+        <v>2577</v>
       </c>
       <c r="G186">
-        <v>2966</v>
+        <v>2577</v>
       </c>
       <c r="H186">
-        <v>2966</v>
-      </c>
-      <c r="J186">
-        <v>2966</v>
+        <v>2577</v>
+      </c>
+      <c r="I186">
+        <v>2577</v>
       </c>
       <c r="K186">
         <v>2966</v>
       </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
       <c r="M186">
         <v>0</v>
       </c>
       <c r="N186">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O186">
         <v>0</v>
       </c>
       <c r="P186">
         <v>0</v>
       </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q186" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D187">
         <v>10</v>
       </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
       <c r="F187">
-        <v>2966</v>
+        <v>2577</v>
       </c>
       <c r="G187">
-        <v>2966</v>
+        <v>2577</v>
       </c>
       <c r="H187">
-        <v>2966</v>
-      </c>
-      <c r="J187">
-        <v>3039</v>
+        <v>2577</v>
+      </c>
+      <c r="I187">
+        <v>2577</v>
       </c>
       <c r="K187">
         <v>2966</v>
       </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
       <c r="M187">
         <v>0</v>
       </c>
       <c r="N187">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O187">
         <v>0</v>
       </c>
       <c r="P187">
         <v>0</v>
       </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q187" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L188" s="8">
+        <v>0</v>
+      </c>
       <c r="M188" s="8">
         <v>0</v>
       </c>
       <c r="N188" s="8">
+        <f>SUM(N178:N187)/10</f>
+        <v>18711.599999999999</v>
+      </c>
+      <c r="O188" s="8">
         <v>0</v>
       </c>
       <c r="P188" s="8">
         <v>0</v>
       </c>
       <c r="Q188" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+        <f>SUM(Q178:Q187)/10</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -7397,49 +8617,46 @@
         <v>5</v>
       </c>
       <c r="E190" t="s">
+        <v>3</v>
+      </c>
+      <c r="F190" t="s">
+        <v>51</v>
+      </c>
+      <c r="G190" t="s">
+        <v>7</v>
+      </c>
+      <c r="H190" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" t="s">
         <v>6</v>
       </c>
-      <c r="F190" t="s">
-        <v>7</v>
-      </c>
-      <c r="G190" t="s">
-        <v>8</v>
-      </c>
-      <c r="H190" t="s">
-        <v>9</v>
-      </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
+        <v>9</v>
+      </c>
+      <c r="K190" t="s">
         <v>10</v>
       </c>
-      <c r="J190" t="s">
+      <c r="L190" t="s">
         <v>11</v>
       </c>
-      <c r="K190" t="s">
+      <c r="M190" t="s">
+        <v>52</v>
+      </c>
+      <c r="N190" t="s">
         <v>12</v>
       </c>
-      <c r="L190" t="s">
+      <c r="O190" t="s">
         <v>13</v>
       </c>
-      <c r="M190" t="s">
+      <c r="P190" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q190" t="s">
         <v>14</v>
       </c>
-      <c r="N190" t="s">
-        <v>15</v>
-      </c>
-      <c r="O190" t="s">
-        <v>16</v>
-      </c>
-      <c r="P190" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>18</v>
-      </c>
-      <c r="R190" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -7452,9 +8669,10 @@
       <c r="D191">
         <v>5</v>
       </c>
-      <c r="E191"/>
+      <c r="E191">
+        <v>5</v>
+      </c>
       <c r="F191">
-        <f>G191</f>
         <v>586</v>
       </c>
       <c r="G191">
@@ -7463,31 +8681,34 @@
       <c r="H191">
         <v>586</v>
       </c>
-      <c r="I191"/>
-      <c r="J191">
-        <v>591</v>
-      </c>
+      <c r="I191">
+        <v>586</v>
+      </c>
+      <c r="J191"/>
       <c r="K191">
         <v>591</v>
       </c>
-      <c r="L191"/>
+      <c r="L191">
+        <v>0</v>
+      </c>
       <c r="M191">
         <v>0</v>
       </c>
       <c r="N191">
-        <v>0</v>
-      </c>
-      <c r="O191"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
       <c r="P191">
         <v>0</v>
       </c>
       <c r="Q191">
         <v>0</v>
       </c>
-      <c r="R191"/>
-      <c r="S191"/>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2</v>
       </c>
@@ -7500,26 +8721,35 @@
       <c r="D192">
         <v>9</v>
       </c>
+      <c r="E192">
+        <v>9</v>
+      </c>
       <c r="F192">
-        <f t="shared" ref="F192:F198" si="8">G192</f>
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="G192">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="H192">
-        <v>1069</v>
-      </c>
-      <c r="J192">
-        <v>1077</v>
+        <v>1064</v>
+      </c>
+      <c r="I192">
+        <v>1064</v>
       </c>
       <c r="K192">
         <v>1077</v>
       </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
       <c r="M192">
         <v>0</v>
       </c>
       <c r="N192">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O192">
         <v>0</v>
       </c>
       <c r="P192">
@@ -7529,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -7542,36 +8772,45 @@
       <c r="D193">
         <v>1</v>
       </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
       <c r="F193">
-        <f t="shared" si="8"/>
-        <v>1246</v>
+        <v>1112</v>
       </c>
       <c r="G193">
-        <v>1246</v>
+        <v>1112</v>
       </c>
       <c r="H193">
-        <v>1246</v>
-      </c>
-      <c r="J193">
-        <v>1323</v>
+        <v>1112</v>
+      </c>
+      <c r="I193">
+        <v>1069</v>
       </c>
       <c r="K193">
         <v>1323</v>
       </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
       <c r="M193">
         <v>0</v>
       </c>
       <c r="N193">
+        <f t="shared" si="7"/>
+        <v>1849</v>
+      </c>
+      <c r="O193">
         <v>0</v>
       </c>
       <c r="P193">
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4</v>
       </c>
@@ -7584,36 +8823,45 @@
       <c r="D194">
         <v>7</v>
       </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
       <c r="F194">
-        <f t="shared" si="8"/>
-        <v>1411</v>
+        <v>1213</v>
       </c>
       <c r="G194">
-        <v>1411</v>
+        <v>1213</v>
       </c>
       <c r="H194">
-        <v>1411</v>
-      </c>
-      <c r="J194">
-        <v>1489</v>
+        <v>1213</v>
+      </c>
+      <c r="I194">
+        <v>1118</v>
       </c>
       <c r="K194">
         <v>1489</v>
       </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
       <c r="M194">
         <v>0</v>
       </c>
       <c r="N194">
+        <f t="shared" si="7"/>
+        <v>9025</v>
+      </c>
+      <c r="O194">
         <v>0</v>
       </c>
       <c r="P194">
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -7626,36 +8874,45 @@
       <c r="D195">
         <v>2</v>
       </c>
+      <c r="E195">
+        <v>7</v>
+      </c>
       <c r="F195">
-        <f t="shared" si="8"/>
-        <v>1564</v>
+        <v>1367</v>
       </c>
       <c r="G195">
-        <v>1564</v>
+        <v>1367</v>
       </c>
       <c r="H195">
-        <v>1564</v>
-      </c>
-      <c r="J195">
-        <v>1641</v>
+        <v>1367</v>
+      </c>
+      <c r="I195">
+        <v>1219</v>
       </c>
       <c r="K195">
         <v>1641</v>
       </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
       <c r="M195">
         <v>0</v>
       </c>
       <c r="N195">
+        <f t="shared" si="7"/>
+        <v>21904</v>
+      </c>
+      <c r="O195">
         <v>0</v>
       </c>
       <c r="P195">
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -7668,36 +8925,45 @@
       <c r="D196">
         <v>4</v>
       </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
       <c r="F196">
-        <f t="shared" si="8"/>
-        <v>1719</v>
+        <v>1515</v>
       </c>
       <c r="G196">
-        <v>1719</v>
+        <v>1515</v>
       </c>
       <c r="H196">
-        <v>1719</v>
-      </c>
-      <c r="J196">
-        <v>1791</v>
+        <v>1515</v>
+      </c>
+      <c r="I196">
+        <v>1375</v>
       </c>
       <c r="K196">
         <v>1791</v>
       </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
       <c r="M196">
         <v>0</v>
       </c>
       <c r="N196">
+        <f t="shared" si="7"/>
+        <v>19600</v>
+      </c>
+      <c r="O196">
         <v>0</v>
       </c>
       <c r="P196">
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7</v>
       </c>
@@ -7710,36 +8976,45 @@
       <c r="D197">
         <v>6</v>
       </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
       <c r="F197">
-        <f t="shared" si="8"/>
-        <v>1815</v>
+        <v>1589</v>
       </c>
       <c r="G197">
-        <v>1815</v>
+        <v>1589</v>
       </c>
       <c r="H197">
-        <v>1815</v>
-      </c>
-      <c r="J197">
-        <v>1885</v>
+        <v>1589</v>
+      </c>
+      <c r="I197">
+        <v>1524</v>
       </c>
       <c r="K197">
         <v>1885</v>
       </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
       <c r="M197">
         <v>0</v>
       </c>
       <c r="N197">
+        <f t="shared" si="7"/>
+        <v>4225</v>
+      </c>
+      <c r="O197">
         <v>0</v>
       </c>
       <c r="P197">
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -7752,36 +9027,45 @@
       <c r="D198">
         <v>3</v>
       </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
       <c r="F198">
-        <f t="shared" si="8"/>
-        <v>1884</v>
+        <v>1600</v>
       </c>
       <c r="G198">
-        <v>1884</v>
+        <v>1600</v>
       </c>
       <c r="H198">
-        <v>1884</v>
-      </c>
-      <c r="J198">
-        <v>1952</v>
+        <v>1600</v>
+      </c>
+      <c r="I198">
+        <v>1600</v>
       </c>
       <c r="K198">
         <v>1952</v>
       </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
       <c r="M198">
         <v>0</v>
       </c>
       <c r="N198">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O198">
         <v>0</v>
       </c>
       <c r="P198">
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -7794,35 +9078,45 @@
       <c r="D199">
         <v>8</v>
       </c>
+      <c r="E199">
+        <v>8</v>
+      </c>
       <c r="F199">
-        <v>1893</v>
+        <v>1619</v>
       </c>
       <c r="G199">
-        <v>1900</v>
+        <v>1619</v>
       </c>
       <c r="H199">
-        <v>1900</v>
-      </c>
-      <c r="J199">
-        <v>1997</v>
+        <v>1619</v>
+      </c>
+      <c r="I199">
+        <v>1619</v>
       </c>
       <c r="K199">
         <v>1965</v>
       </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
       <c r="M199">
         <v>0</v>
       </c>
       <c r="N199">
-        <v>49</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
       </c>
       <c r="P199">
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10</v>
       </c>
@@ -7835,48 +9129,65 @@
       <c r="D200">
         <v>10</v>
       </c>
+      <c r="E200">
+        <v>10</v>
+      </c>
       <c r="F200">
-        <v>1900</v>
+        <v>1619</v>
       </c>
       <c r="G200">
-        <v>1900</v>
+        <v>1619</v>
       </c>
       <c r="H200">
-        <v>1900</v>
-      </c>
-      <c r="J200">
-        <v>2010</v>
+        <v>1619</v>
+      </c>
+      <c r="I200">
+        <v>1619</v>
       </c>
       <c r="K200">
         <v>1965</v>
       </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
       <c r="M200">
         <v>0</v>
       </c>
       <c r="N200">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O200">
         <v>0</v>
       </c>
       <c r="P200">
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L201" s="8">
+        <v>0</v>
+      </c>
       <c r="M201" s="8">
         <v>0</v>
       </c>
       <c r="N201" s="8">
-        <v>4.9000000000000004</v>
+        <f>SUM(N191:N200)/10</f>
+        <v>5660.3</v>
+      </c>
+      <c r="O201" s="8">
+        <v>0</v>
       </c>
       <c r="P201" s="8">
         <v>0</v>
       </c>
-      <c r="Q201" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="S201" s="10"/>
+      <c r="Q201" s="10">
+        <f>SUM(Q191:Q200)/10</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiements Result/S-2.xlsx
+++ b/Experiements Result/S-2.xlsx
@@ -592,7 +592,7 @@
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+      <selection activeCell="B178" sqref="B178:B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8653,6 +8653,9 @@
       <c r="A178">
         <v>1</v>
       </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
       <c r="C178">
         <v>9</v>
       </c>
@@ -8661,6 +8664,9 @@
       </c>
       <c r="E178">
         <v>9</v>
+      </c>
+      <c r="F178">
+        <v>415</v>
       </c>
       <c r="G178">
         <v>415</v>
@@ -8700,6 +8706,9 @@
       <c r="A179">
         <v>2</v>
       </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
       <c r="C179">
         <v>4</v>
       </c>
@@ -8708,6 +8717,9 @@
       </c>
       <c r="E179">
         <v>10</v>
+      </c>
+      <c r="F179">
+        <v>448</v>
       </c>
       <c r="G179">
         <v>554</v>
@@ -8747,6 +8759,9 @@
       <c r="A180">
         <v>3</v>
       </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
       <c r="C180">
         <v>8</v>
       </c>
@@ -8755,6 +8770,9 @@
       </c>
       <c r="E180">
         <v>4</v>
+      </c>
+      <c r="F180">
+        <v>595</v>
       </c>
       <c r="G180">
         <v>556</v>
@@ -8794,6 +8812,9 @@
       <c r="A181">
         <v>4</v>
       </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
       <c r="C181">
         <v>1</v>
       </c>
@@ -8802,6 +8823,9 @@
       </c>
       <c r="E181">
         <v>6</v>
+      </c>
+      <c r="F181">
+        <v>595</v>
       </c>
       <c r="G181">
         <v>569</v>
@@ -8841,6 +8865,9 @@
       <c r="A182">
         <v>5</v>
       </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
       <c r="C182">
         <v>7</v>
       </c>
@@ -8849,6 +8876,9 @@
       </c>
       <c r="E182">
         <v>8</v>
+      </c>
+      <c r="F182">
+        <v>595</v>
       </c>
       <c r="G182">
         <v>610</v>
@@ -8888,6 +8918,9 @@
       <c r="A183">
         <v>6</v>
       </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
       <c r="C183">
         <v>2</v>
       </c>
@@ -8896,6 +8929,9 @@
       </c>
       <c r="E183">
         <v>5</v>
+      </c>
+      <c r="F183">
+        <v>595</v>
       </c>
       <c r="G183">
         <v>617</v>
@@ -8935,6 +8971,9 @@
       <c r="A184">
         <v>7</v>
       </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
       <c r="C184">
         <v>10</v>
       </c>
@@ -8943,6 +8982,9 @@
       </c>
       <c r="E184">
         <v>1</v>
+      </c>
+      <c r="F184">
+        <v>605</v>
       </c>
       <c r="G184">
         <v>639</v>
@@ -8982,6 +9024,9 @@
       <c r="A185">
         <v>8</v>
       </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
       <c r="C185">
         <v>6</v>
       </c>
@@ -8991,6 +9036,9 @@
       <c r="E185">
         <v>7</v>
       </c>
+      <c r="F185">
+        <v>639</v>
+      </c>
       <c r="G185">
         <v>639</v>
       </c>
@@ -9029,6 +9077,9 @@
       <c r="A186">
         <v>9</v>
       </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
       <c r="C186">
         <v>3</v>
       </c>
@@ -9037,6 +9088,9 @@
       </c>
       <c r="E186">
         <v>2</v>
+      </c>
+      <c r="F186">
+        <v>639</v>
       </c>
       <c r="G186">
         <v>639</v>
@@ -9076,6 +9130,9 @@
       <c r="A187">
         <v>10</v>
       </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
       <c r="C187">
         <v>5</v>
       </c>
@@ -9084,6 +9141,9 @@
       </c>
       <c r="E187">
         <v>3</v>
+      </c>
+      <c r="F187">
+        <v>639</v>
       </c>
       <c r="G187">
         <v>639</v>
